--- a/data/sim_res_fac.xlsx
+++ b/data/sim_res_fac.xlsx
@@ -355,13 +355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB101"/>
+  <dimension ref="A1:BD101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="54" max="54" width="20.7109375" style="2" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -577,60 +577,70 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>software_q18</t>
+          <t>software_1_q18</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
+          <t>software_2_q18</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>software_3_q18</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>userwritten_q19</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>userwrittenquote_q19</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>codeprovided_q20</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>codelink_q20</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>seedprovided_q21</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>compenvironment_q22</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>compos_q23</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>reproducibilitynote</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>coding_confidence</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>dateofreview</t>
         </is>
@@ -832,50 +842,55 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>R, Mplus</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Mplus</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
+      <c r="AW2" t="inlineStr">
         <is>
           <t>https://github.com/secastroal/LST_Analyses</t>
         </is>
       </c>
-      <c r="AV2" t="inlineStr">
+      <c r="AX2" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW2" t="inlineStr">
+      <c r="AY2" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
         <is>
           <t>package and R/MPLus version, but not OS</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr">
+      <c r="BC2" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB2" s="2">
+      <c r="BD2" s="2">
         <v>45082</v>
       </c>
     </row>
@@ -1063,42 +1078,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr">
+      <c r="AY3" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
         <is>
           <t>only package name</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr">
+      <c r="BC3" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB3" s="2">
+      <c r="BD3" s="2">
         <v>45082</v>
       </c>
     </row>
@@ -1296,42 +1311,42 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
           <t>extremely badly described and quite complicated paper -- I'm very unsure about the coding (the simulation starts at p. 89?)</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr">
+      <c r="BC4" t="inlineStr">
         <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BB4" s="2">
+      <c r="BD4" s="2">
         <v>45082</v>
       </c>
     </row>
@@ -1524,42 +1539,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT5" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
         <is>
           <t>code only for example, not the sim study</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
         <is>
           <t>The sim study compares different fix indecies (based on a single ML model). So, although they are usually thought of as estimands, they serve as methods in this settings.</t>
         </is>
       </c>
-      <c r="BA5" t="inlineStr">
+      <c r="BC5" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB5" s="2">
+      <c r="BD5" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -1752,32 +1772,37 @@
           <t>MATLAB</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AW6" t="inlineStr">
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA6" t="inlineStr">
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB6" s="2">
+      <c r="BD6" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -1975,42 +2000,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT7" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU7" t="inlineStr">
+      <c r="AW7" t="inlineStr">
         <is>
           <t>https://github.com/connorjmccabe/modglm/blob/master/mscode/imp2_simulation_logit_FINAL_github.R</t>
         </is>
       </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA7" t="inlineStr">
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB7" s="2">
+      <c r="BD7" s="2">
         <v>45105</v>
       </c>
     </row>
@@ -2208,32 +2233,37 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr">
+      <c r="AV8" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AW8" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA8" t="inlineStr">
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB8" s="2">
+      <c r="BD8" s="2">
         <v>45105</v>
       </c>
     </row>
@@ -2431,32 +2461,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT9" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AW9" t="inlineStr">
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA9" t="inlineStr">
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB9" s="2">
+      <c r="BD9" s="2">
         <v>45105</v>
       </c>
     </row>
@@ -2649,37 +2684,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT10" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AU10" t="inlineStr">
+      <c r="AW10" t="inlineStr">
         <is>
           <t>"The simulation codecan be requested from the last author of this paper."</t>
         </is>
       </c>
-      <c r="AW10" t="inlineStr">
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA10" t="inlineStr">
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB10" s="2">
+      <c r="BD10" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -2877,42 +2917,42 @@
           <t>SAS</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT11" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU11" t="inlineStr">
+      <c r="AW11" t="inlineStr">
         <is>
           <t>https://osf.io/xhfqw</t>
         </is>
       </c>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW11" t="inlineStr">
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA11" t="inlineStr">
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB11" s="2">
+      <c r="BD11" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -3110,42 +3150,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT12" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AU12" t="inlineStr">
+      <c r="AW12" t="inlineStr">
         <is>
           <t>"is available upon request from the corresponding author"</t>
         </is>
       </c>
-      <c r="AW12" t="inlineStr">
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX12" t="inlineStr">
+      <c r="AZ12" t="inlineStr">
         <is>
           <t>fully</t>
         </is>
       </c>
-      <c r="AY12" t="inlineStr">
+      <c r="BA12" t="inlineStr">
         <is>
           <t>including processor and RAM (because of the computational time comparison)</t>
         </is>
       </c>
-      <c r="BA12" t="inlineStr">
+      <c r="BC12" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB12" s="2">
+      <c r="BD12" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -3343,37 +3388,42 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT13" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AU13" t="inlineStr">
+      <c r="AW13" t="inlineStr">
         <is>
           <t>only data</t>
         </is>
       </c>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA13" t="inlineStr">
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB13" s="2">
+      <c r="BD13" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -3576,32 +3626,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT14" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AW14" t="inlineStr">
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX14" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA14" t="inlineStr">
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB14" s="2">
+      <c r="BD14" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -3799,37 +3854,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT15" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr">
+      <c r="AW15" t="inlineStr">
         <is>
           <t>"The code for data generation and calibration was written in R programming language (R Core Team, Citation2020) and can be requested from the author"</t>
         </is>
       </c>
-      <c r="AW15" t="inlineStr">
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX15" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA15" t="inlineStr">
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB15" s="2">
+      <c r="BD15" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -4022,32 +4082,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT16" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AW16" t="inlineStr">
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA16" t="inlineStr">
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB16" s="2">
+      <c r="BD16" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -4250,42 +4315,42 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT17" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU17" t="inlineStr">
+      <c r="AW17" t="inlineStr">
         <is>
           <t>http://www.sta.cuhk.edu.hk/xysong/JHMM/</t>
         </is>
       </c>
-      <c r="AV17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW17" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA17" t="inlineStr">
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB17" s="2">
+      <c r="BD17" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -4485,35 +4550,45 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>R, Mplus</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>Mplus</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AW18" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA18" t="inlineStr">
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB18" s="2">
+      <c r="BD18" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -4706,42 +4781,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT19" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU19" t="inlineStr">
+      <c r="AW19" t="inlineStr">
         <is>
           <t>https://figshare.com/articles/software/Multiple_imputation_in_data_that_grow_over_time/9902276</t>
         </is>
       </c>
-      <c r="AV19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW19" t="inlineStr">
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX19" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA19" t="inlineStr">
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB19" s="2">
+      <c r="BD19" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -4939,42 +5014,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="AT20" t="inlineStr">
+      <c r="AV20" t="inlineStr">
         <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU20" t="inlineStr">
+      <c r="AW20" t="inlineStr">
         <is>
           <t>https://github.com/Aaron0696/FIML_MI_JOC_MISSINGDATA</t>
         </is>
       </c>
-      <c r="AV20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW20" t="inlineStr">
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX20" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA20" t="inlineStr">
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB20" s="2">
+      <c r="BD20" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -5177,37 +5252,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT21" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AU21" t="inlineStr">
+      <c r="AW21" t="inlineStr">
         <is>
           <t>references previous simulation</t>
         </is>
       </c>
-      <c r="AW21" t="inlineStr">
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX21" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA21" t="inlineStr">
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB21" s="2">
+      <c r="BD21" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -5405,42 +5485,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT22" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AU22" t="inlineStr">
+      <c r="AW22" t="inlineStr">
         <is>
           <t>http://faculty.missouri.edu/huangf/CR2/</t>
         </is>
       </c>
-      <c r="AW22" t="inlineStr">
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX22" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AZ22" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
           <t>links to code on authors website but cannot be reached -- use open mantained repositories</t>
         </is>
       </c>
-      <c r="BA22" t="inlineStr">
+      <c r="BC22" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB22" s="2">
+      <c r="BD22" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -5638,37 +5723,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT23" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AU23" t="inlineStr">
+      <c r="AW23" t="inlineStr">
         <is>
           <t>(https://github.com/CynthiaXinTong/MedianGMM) only example, not full simulation script</t>
         </is>
       </c>
-      <c r="AW23" t="inlineStr">
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX23" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA23" t="inlineStr">
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB23" s="2">
+      <c r="BD23" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -5866,42 +5956,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT24" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AU24" t="inlineStr">
+      <c r="AW24" t="inlineStr">
         <is>
           <t>"R codes can be made available upon request to the corresponding author"</t>
         </is>
       </c>
-      <c r="AW24" t="inlineStr">
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX24" t="inlineStr">
+      <c r="AZ24" t="inlineStr">
         <is>
           <t>fully</t>
         </is>
       </c>
-      <c r="AY24" t="inlineStr">
+      <c r="BA24" t="inlineStr">
         <is>
           <t>A simulation study was conducted to evaluate the performance of the proposed GA for forced-choice item pairing.</t>
         </is>
       </c>
-      <c r="BA24" t="inlineStr">
+      <c r="BC24" t="inlineStr">
         <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BB24" s="2">
+      <c r="BD24" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -6104,47 +6199,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AS25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
         <is>
           <t>they develop the package used for the methods</t>
         </is>
       </c>
-      <c r="AT25" t="inlineStr">
+      <c r="AV25" t="inlineStr">
         <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU25" t="inlineStr">
+      <c r="AW25" t="inlineStr">
         <is>
           <t>https://osf.io/xdg3p/</t>
         </is>
       </c>
-      <c r="AV25" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW25" t="inlineStr">
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA25" t="inlineStr">
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB25" s="2">
+      <c r="BD25" s="2">
         <v>45100</v>
       </c>
     </row>
@@ -6347,32 +6442,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT26" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AW26" t="inlineStr">
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AX26" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA26" t="inlineStr">
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB26" s="2">
+      <c r="BD26" s="2">
         <v>45100</v>
       </c>
     </row>
@@ -6575,42 +6675,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT27" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU27" t="inlineStr">
+      <c r="AW27" t="inlineStr">
         <is>
           <t>https://supp.apa.org/psycarticles/supplemental/met0000385/met0000385Rcode_submission.R</t>
         </is>
       </c>
-      <c r="AV27" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW27" t="inlineStr">
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX27" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA27" t="inlineStr">
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB27" s="2">
+      <c r="BD27" s="2">
         <v>45100</v>
       </c>
     </row>
@@ -6810,45 +6910,50 @@
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>R, Mplus</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>Mplus</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU28" t="inlineStr">
+      <c r="AW28" t="inlineStr">
         <is>
           <t>https://osf.io/h95vx/</t>
         </is>
       </c>
-      <c r="AV28" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW28" t="inlineStr">
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA28" t="inlineStr">
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB28" s="2">
+      <c r="BD28" s="2">
         <v>45100</v>
       </c>
     </row>
@@ -7046,42 +7151,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT29" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU29" t="inlineStr">
+      <c r="AW29" t="inlineStr">
         <is>
           <t>https://osf.io/bwk5t/</t>
         </is>
       </c>
-      <c r="AV29" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW29" t="inlineStr">
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA29" t="inlineStr">
+      <c r="AZ29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB29" s="2">
+      <c r="BD29" s="2">
         <v>45100</v>
       </c>
     </row>
@@ -7274,32 +7379,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT30" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AW30" t="inlineStr">
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA30" t="inlineStr">
+      <c r="AZ30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB30" s="2">
+      <c r="BD30" s="2">
         <v>45107</v>
       </c>
     </row>
@@ -7502,32 +7612,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT31" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AW31" t="inlineStr">
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX31" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA31" t="inlineStr">
+      <c r="AZ31" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC31" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB31" s="2">
+      <c r="BD31" s="2">
         <v>45107</v>
       </c>
     </row>
@@ -7725,42 +7840,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT32" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV32" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU32" t="inlineStr">
+      <c r="AW32" t="inlineStr">
         <is>
           <t>https://osf.io/5f732/?view_only=</t>
         </is>
       </c>
-      <c r="AV32" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW32" t="inlineStr">
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA32" t="inlineStr">
+      <c r="AZ32" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC32" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB32" s="2">
+      <c r="BD32" s="2">
         <v>45110</v>
       </c>
     </row>
@@ -7958,42 +8073,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT33" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV33" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU33" t="inlineStr">
+      <c r="AW33" t="inlineStr">
         <is>
           <t>https://osf.io/cd5sr/</t>
         </is>
       </c>
-      <c r="AW33" t="inlineStr">
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
         <is>
           <t>fully</t>
         </is>
       </c>
-      <c r="AX33" t="inlineStr">
+      <c r="AZ33" t="inlineStr">
         <is>
           <t>fully</t>
         </is>
       </c>
-      <c r="AZ33" t="inlineStr">
+      <c r="BB33" t="inlineStr">
         <is>
           <t>great example of citing packages with version numbers directly in text</t>
         </is>
       </c>
-      <c r="BA33" t="inlineStr">
+      <c r="BC33" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB33" s="2">
+      <c r="BD33" s="2">
         <v>45110</v>
       </c>
     </row>
@@ -8191,32 +8311,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT34" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV34" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AW34" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA34" t="inlineStr">
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ34" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC34" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB34" s="2">
+      <c r="BD34" s="2">
         <v>45110</v>
       </c>
     </row>
@@ -8414,32 +8539,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT35" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV35" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AW35" t="inlineStr">
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX35" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA35" t="inlineStr">
+      <c r="AZ35" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC35" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB35" s="2">
+      <c r="BD35" s="2">
         <v>45110</v>
       </c>
     </row>
@@ -8637,47 +8767,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU36" t="inlineStr">
         <is>
           <t>"the modified parallel analysis and factor score reliabilities were calculated using author-written functions in R. Code for these functions is available upon request."</t>
         </is>
       </c>
-      <c r="AT36" t="inlineStr">
+      <c r="AV36" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV36" t="inlineStr">
+      <c r="AX36" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW36" t="inlineStr">
+      <c r="AY36" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX36" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AZ36" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB36" t="inlineStr">
+        <is>
           <t>super weird, one paragraph of the whole paper contains information about the simulation, suppplemental material does not exist. unsure about my rating. User-written software is mentioned, unclear if used in the simulation</t>
         </is>
       </c>
-      <c r="BA36" t="inlineStr">
+      <c r="BC36" t="inlineStr">
         <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BB36" s="2">
+      <c r="BD36" s="2">
         <v>45083</v>
       </c>
     </row>
@@ -8887,50 +9017,55 @@
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>R, Stan</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Stan</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV37" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV37" t="inlineStr">
+      <c r="AX37" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW37" t="inlineStr">
+      <c r="AY37" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX37" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY37" t="inlineStr">
+      <c r="AZ37" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA37" t="inlineStr">
         <is>
           <t>only software name, no version</t>
         </is>
       </c>
-      <c r="AZ37" t="inlineStr">
+      <c r="BB37" t="inlineStr">
         <is>
           <t>uncertainty only provided for one of the many measures. Unsure if the estimand here are the individual parts of the factor model or the respective fit indices</t>
         </is>
       </c>
-      <c r="BA37" t="inlineStr">
+      <c r="BC37" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB37" s="2">
+      <c r="BD37" s="2">
         <v>45083</v>
       </c>
     </row>
@@ -9143,42 +9278,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT38" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV38" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV38" t="inlineStr">
+      <c r="AX38" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW38" t="inlineStr">
+      <c r="AY38" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX38" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AZ38" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB38" t="inlineStr">
+        <is>
           <t>unclear to me if the first simulation study of the paper is supposed to be a simulation study or just an example of simulation-based power analysis; kept very brief</t>
         </is>
       </c>
-      <c r="BA38" t="inlineStr">
+      <c r="BC38" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB38" s="2">
+      <c r="BD38" s="2">
         <v>45083</v>
       </c>
     </row>
@@ -9386,42 +9521,42 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT39" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV39" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV39" t="inlineStr">
+      <c r="AX39" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW39" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX39" t="inlineStr">
+      <c r="AY39" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
       <c r="AZ39" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB39" t="inlineStr">
+        <is>
           <t>figures look like screenshots from an excel spreadsheet</t>
         </is>
       </c>
-      <c r="BA39" t="inlineStr">
+      <c r="BC39" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB39" s="2">
+      <c r="BD39" s="2">
         <v>45084</v>
       </c>
     </row>
@@ -9634,47 +9769,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU40" t="inlineStr">
         <is>
           <t>"All the estimation routines described in this paper and employed for the simulations and empirical example were coded in R by the first author."</t>
         </is>
       </c>
-      <c r="AT40" t="inlineStr">
+      <c r="AV40" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV40" t="inlineStr">
+      <c r="AX40" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW40" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX40" t="inlineStr">
+      <c r="AY40" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
       <c r="AZ40" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB40" t="inlineStr">
+        <is>
           <t>they call it two simulations, but later state that these are the two "main simulation conditions". I've coded it as one sim.</t>
         </is>
       </c>
-      <c r="BA40" t="inlineStr">
+      <c r="BC40" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB40" s="2">
+      <c r="BD40" s="2">
         <v>45084</v>
       </c>
     </row>
@@ -9877,47 +10012,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AS41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AU41" t="inlineStr">
         <is>
           <t>they merely implemented it in mgcv</t>
         </is>
       </c>
-      <c r="AT41" t="inlineStr">
+      <c r="AV41" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV41" t="inlineStr">
+      <c r="AX41" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW41" t="inlineStr">
+      <c r="AY41" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX41" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY41" t="inlineStr">
+      <c r="AZ41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA41" t="inlineStr">
         <is>
           <t>they provide extensive code for model fitting, which also includes a seed somewhere. But they do not provide the code for their simulation</t>
         </is>
       </c>
-      <c r="BA41" t="inlineStr">
+      <c r="BC41" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB41" s="2">
+      <c r="BD41" s="2">
         <v>45090</v>
       </c>
     </row>
@@ -10117,55 +10252,60 @@
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>R, Stata</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS42" t="inlineStr">
+          <t>Stata</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU42" t="inlineStr">
         <is>
           <t>"The R code and data used in this paper are available in GitHub at https:// github.com/jtm508/bayestraj. Vignettes are also provided to help users adapt the code to applications of their own interest."</t>
         </is>
       </c>
-      <c r="AT42" t="inlineStr">
+      <c r="AV42" t="inlineStr">
         <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU42" t="inlineStr">
+      <c r="AW42" t="inlineStr">
         <is>
           <t>https://github.com/jtm508/bayestraj</t>
         </is>
       </c>
-      <c r="AV42" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW42" t="inlineStr">
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX42" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AZ42" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB42" t="inlineStr">
+        <is>
           <t>not sure if this should be included. More of a demonstration than a full simulation</t>
         </is>
       </c>
-      <c r="BA42" t="inlineStr">
+      <c r="BC42" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB42" s="2">
+      <c r="BD42" s="2">
         <v>45090</v>
       </c>
     </row>
@@ -10378,42 +10518,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU43" t="inlineStr">
         <is>
           <t>"The download link and a brief description of an R package for our latent mixture-based method is available in the online supplemental materials."</t>
         </is>
       </c>
-      <c r="AT43" t="inlineStr">
+      <c r="AV43" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV43" t="inlineStr">
+      <c r="AX43" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW43" t="inlineStr">
+      <c r="AY43" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX43" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA43" t="inlineStr">
+      <c r="AZ43" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC43" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB43" s="2">
+      <c r="BD43" s="2">
         <v>45090</v>
       </c>
     </row>
@@ -10631,57 +10771,57 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU44" t="inlineStr">
         <is>
           <t>wrote their own MCMC sampler</t>
         </is>
       </c>
-      <c r="AT44" t="inlineStr">
+      <c r="AV44" t="inlineStr">
         <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU44" t="inlineStr">
+      <c r="AW44" t="inlineStr">
         <is>
           <t>https://github.com/MbCN-lab/LassoFANDDM</t>
         </is>
       </c>
-      <c r="AV44" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW44" t="inlineStr">
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX44" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY44" t="inlineStr">
+      <c r="AZ44" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA44" t="inlineStr">
         <is>
           <t>seed is not in the simulation script, but in the "main" script. Still counted it as yes</t>
         </is>
       </c>
-      <c r="AZ44" t="inlineStr">
+      <c r="BB44" t="inlineStr">
         <is>
           <t>not sure if this should be included. More of a demonstration than a full simulation</t>
         </is>
       </c>
-      <c r="BA44" t="inlineStr">
+      <c r="BC44" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB44" s="2">
+      <c r="BD44" s="2">
         <v>45103</v>
       </c>
     </row>
@@ -10886,55 +11026,60 @@
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>R, JAGS</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR45" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS45" t="inlineStr">
+          <t>JAGS</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU45" t="inlineStr">
         <is>
           <t>JAGS model</t>
         </is>
       </c>
-      <c r="AT45" t="inlineStr">
+      <c r="AV45" t="inlineStr">
         <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU45" t="inlineStr">
+      <c r="AW45" t="inlineStr">
         <is>
           <t>https://osf.io/5vnxc/</t>
         </is>
       </c>
-      <c r="AV45" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW45" t="inlineStr">
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX45" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY45" t="inlineStr">
+      <c r="AZ45" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA45" t="inlineStr">
         <is>
           <t>seed provided in a different part of the scripts, but still coded as "yes"</t>
         </is>
       </c>
-      <c r="BA45" t="inlineStr">
+      <c r="BC45" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB45" s="2">
+      <c r="BD45" s="2">
         <v>45101</v>
       </c>
     </row>
@@ -11142,42 +11287,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT46" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV46" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU46" t="inlineStr">
+      <c r="AW46" t="inlineStr">
         <is>
           <t>https://github.com/wwloh/disentangle-multiple-mediators</t>
         </is>
       </c>
-      <c r="AW46" t="inlineStr">
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AZ46" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB46" t="inlineStr">
+        <is>
           <t>the simulation coded here merely dealt as illustration that a certain model specification can recover unbiased estimates on average</t>
         </is>
       </c>
-      <c r="BA46" t="inlineStr">
+      <c r="BC46" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB46" s="2">
+      <c r="BD46" s="2">
         <v>45101</v>
       </c>
     </row>
@@ -11385,42 +11535,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU47" t="inlineStr">
         <is>
           <t>We have also developed an R package that implements the proposed method (https://cran.r-project.org/web/packages/mediationsens/index.html).</t>
         </is>
       </c>
-      <c r="AT47" t="inlineStr">
+      <c r="AV47" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AW47" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AX47" t="inlineStr">
         <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
       <c r="AZ47" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB47" t="inlineStr">
+        <is>
           <t>this was the most unneccessarily complex description of a simulation study so far. Different subscenarios within different scenarios</t>
         </is>
       </c>
-      <c r="BA47" t="inlineStr">
+      <c r="BC47" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB47" s="2">
+      <c r="BD47" s="2">
         <v>45103</v>
       </c>
     </row>
@@ -11628,42 +11783,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU48" t="inlineStr">
         <is>
           <t>development of a web app which makes it easier for applied researchers to implement the proposed summary-statistics-based power analysis (https://koumurayama.shinyapps.io/summary_statistics _based_power/)</t>
         </is>
       </c>
-      <c r="AT48" t="inlineStr">
+      <c r="AV48" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AW48" t="inlineStr">
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX48" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY48" t="inlineStr">
+      <c r="AZ48" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA48" t="inlineStr">
         <is>
           <t>computational environment not really specified, but could use their shiny app to reproduce the results</t>
         </is>
       </c>
-      <c r="BA48" t="inlineStr">
+      <c r="BC48" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB48" s="2">
+      <c r="BD48" s="2">
         <v>45103</v>
       </c>
     </row>
@@ -11871,52 +12031,52 @@
           <t>Ox</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU49" t="inlineStr">
         <is>
           <t>Ox Code</t>
         </is>
       </c>
-      <c r="AT49" t="inlineStr">
+      <c r="AV49" t="inlineStr">
         <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU49" t="inlineStr">
+      <c r="AW49" t="inlineStr">
         <is>
           <t>https://supp.apa.org/psycarticles/supplemental/met0000412/met0000412_simulation_general_coefficient_for_revision_1.ox</t>
         </is>
       </c>
-      <c r="AV49" t="inlineStr">
+      <c r="AX49" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW49" t="inlineStr">
+      <c r="AY49" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX49" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY49" t="inlineStr">
+      <c r="AZ49" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA49" t="inlineStr">
         <is>
           <t>hard to read the Ox code, but I see no seed there. Not sure if "minimal" is correct for this</t>
         </is>
       </c>
-      <c r="BA49" t="inlineStr">
+      <c r="BC49" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB49" s="2">
+      <c r="BD49" s="2">
         <v>45103</v>
       </c>
     </row>
@@ -12116,55 +12276,60 @@
       </c>
       <c r="AQ50" t="inlineStr">
         <is>
-          <t>R, Mplus</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR50" t="inlineStr">
         <is>
+          <t>Mplus</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
+        <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="AS50" t="inlineStr">
+      <c r="AU50" t="inlineStr">
         <is>
           <t>In order to estimate the 2moME model with single-level data, we “trick” the software by including a cluster variable that has only one individual in each cluster.</t>
         </is>
       </c>
-      <c r="AT50" t="inlineStr">
+      <c r="AV50" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV50" t="inlineStr">
+      <c r="AX50" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW50" t="inlineStr">
+      <c r="AY50" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX50" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY50" t="inlineStr">
+      <c r="AZ50" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA50" t="inlineStr">
         <is>
           <t>contains Mplus version, but not R version</t>
         </is>
       </c>
-      <c r="AZ50" t="inlineStr">
+      <c r="BB50" t="inlineStr">
         <is>
           <t>rather clear in stating goals &amp; performance measures of sim study. Not sure if this small Mplus trick is enough to count as "userwritten"</t>
         </is>
       </c>
-      <c r="BA50" t="inlineStr">
+      <c r="BC50" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB50" s="2">
+      <c r="BD50" s="2">
         <v>45103</v>
       </c>
     </row>
@@ -12377,47 +12542,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AT51" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AV51" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU51" t="inlineStr">
+      <c r="AW51" t="inlineStr">
         <is>
           <t>https://osf.io/qvryj/</t>
         </is>
       </c>
-      <c r="AV51" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW51" t="inlineStr">
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX51" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY51" t="inlineStr">
+      <c r="AZ51" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA51" t="inlineStr">
         <is>
           <t>not sure if seed found in the code was also used for the simulation, but the same seed was used multiple times, so that's probably used. R version given, other package versions not given</t>
         </is>
       </c>
-      <c r="AZ51" t="inlineStr">
+      <c r="BB51" t="inlineStr">
         <is>
           <t>not sure if this should count as simulation study for our purposes. They demonstrate an issue rather than investigate performance</t>
         </is>
       </c>
-      <c r="BA51" t="inlineStr">
+      <c r="BC51" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -12627,47 +12792,47 @@
           <t>SAS</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AS52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AU52" t="inlineStr">
         <is>
           <t>used standard SAS module</t>
         </is>
       </c>
-      <c r="AT52" t="inlineStr">
+      <c r="AV52" t="inlineStr">
         <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU52" t="inlineStr">
+      <c r="AW52" t="inlineStr">
         <is>
           <t>https://scholarworks.iupui.edu/handle/1805/24059</t>
         </is>
       </c>
-      <c r="AV52" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW52" t="inlineStr">
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX52" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY52" t="inlineStr">
+      <c r="AZ52" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA52" t="inlineStr">
         <is>
           <t>code is on university homepage, not sure how long this will be accessible</t>
         </is>
       </c>
-      <c r="BA52" t="inlineStr">
+      <c r="BC52" t="inlineStr">
         <is>
           <t>great</t>
         </is>
@@ -12872,52 +13037,52 @@
           <t>JAGS</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AS53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AU53" t="inlineStr">
         <is>
           <t>they use their own JAGS code - is this user written?</t>
         </is>
       </c>
-      <c r="AT53" t="inlineStr">
+      <c r="AV53" t="inlineStr">
         <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU53" t="inlineStr">
+      <c r="AW53" t="inlineStr">
         <is>
           <t>printed in the paper</t>
         </is>
       </c>
-      <c r="AV53" t="inlineStr">
+      <c r="AX53" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW53" t="inlineStr">
+      <c r="AY53" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX53" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AZ53" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB53" t="inlineStr">
+        <is>
           <t>unsure if this should be called a simulation study, they call it "parameter recovery study"</t>
         </is>
       </c>
-      <c r="BA53" t="inlineStr">
+      <c r="BC53" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB53" s="2">
+      <c r="BD53" s="2">
         <v>45100</v>
       </c>
     </row>
@@ -13120,57 +13285,57 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU54" t="inlineStr">
         <is>
           <t>In this section, we provide a comprehensive overview of how to use mixtur, providing code examples for each step. mixtur is written in R (Version 4.0.2, R Core Team, 2020)4, a free statistical programming language. To download R, visit https://www.r-project.org/.</t>
         </is>
       </c>
-      <c r="AT54" t="inlineStr">
+      <c r="AV54" t="inlineStr">
         <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU54" t="inlineStr">
+      <c r="AW54" t="inlineStr">
         <is>
           <t>https://osf.io/je2y6</t>
         </is>
       </c>
-      <c r="AV54" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW54" t="inlineStr">
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AX54" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY54" t="inlineStr">
+      <c r="AZ54" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA54" t="inlineStr">
         <is>
           <t>packages with versions</t>
         </is>
       </c>
-      <c r="AZ54" t="inlineStr">
+      <c r="BB54" t="inlineStr">
         <is>
           <t>split into 5 brief simulations. This seems like a positive example for reproducibility</t>
         </is>
       </c>
-      <c r="BA54" t="inlineStr">
+      <c r="BC54" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB54" s="2">
+      <c r="BD54" s="2">
         <v>45100</v>
       </c>
     </row>
@@ -13368,52 +13533,52 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT55" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV55" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU55" t="inlineStr">
+      <c r="AW55" t="inlineStr">
         <is>
           <t>https://osf.io/3nj64</t>
         </is>
       </c>
-      <c r="AV55" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW55" t="inlineStr">
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX55" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY55" t="inlineStr">
+      <c r="AZ55" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA55" t="inlineStr">
         <is>
           <t>seed is set to iteration in for loop</t>
         </is>
       </c>
-      <c r="AZ55" t="inlineStr">
+      <c r="BB55" t="inlineStr">
         <is>
           <t>simulation results on OSF, nice extensive supplement</t>
         </is>
       </c>
-      <c r="BA55" t="inlineStr">
+      <c r="BC55" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB55" s="2">
+      <c r="BD55" s="2">
         <v>45101</v>
       </c>
     </row>
@@ -13611,42 +13776,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT56" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV56" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV56" t="inlineStr">
+      <c r="AX56" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW56" t="inlineStr">
+      <c r="AY56" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AY56" t="inlineStr">
+      <c r="BA56" t="inlineStr">
         <is>
           <t>code for analyses available, but not for simulation</t>
         </is>
       </c>
-      <c r="AZ56" t="inlineStr">
+      <c r="BB56" t="inlineStr">
         <is>
           <t>extensive supplement</t>
         </is>
       </c>
-      <c r="BA56" t="inlineStr">
+      <c r="BC56" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB56" s="2">
+      <c r="BD56" s="2">
         <v>45101</v>
       </c>
     </row>
@@ -13851,60 +14016,65 @@
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>C++, Python</t>
+          <t>C++</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS57" t="inlineStr">
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="AT57" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU57" t="inlineStr">
         <is>
           <t>"our method, implemented in C++ as a DOS application"</t>
         </is>
       </c>
-      <c r="AT57" t="inlineStr">
+      <c r="AV57" t="inlineStr">
         <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU57" t="inlineStr">
+      <c r="AW57" t="inlineStr">
         <is>
           <t>https://zenodo.org/record/4897128</t>
         </is>
       </c>
-      <c r="AV57" t="inlineStr">
+      <c r="AX57" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW57" t="inlineStr">
+      <c r="AY57" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AX57" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY57" t="inlineStr">
+      <c r="AZ57" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA57" t="inlineStr">
         <is>
           <t>not sure how to check the code here, really large repo. May not contain the code for the simulations, not sure. They use their own software, which is why I put "partially"</t>
         </is>
       </c>
-      <c r="AZ57" t="inlineStr">
+      <c r="BB57" t="inlineStr">
         <is>
           <t>unsure if we should include this, they simulate data to show that their algorithm has good synchronization errors</t>
         </is>
       </c>
-      <c r="BA57" t="inlineStr">
+      <c r="BC57" t="inlineStr">
         <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BB57" s="2">
+      <c r="BD57" s="2">
         <v>45101</v>
       </c>
     </row>
@@ -14107,37 +14277,37 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT58" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV58" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV58" t="inlineStr">
+      <c r="AX58" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW58" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX58" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA58" t="inlineStr">
+      <c r="AY58" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ58" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC58" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB58" s="2">
+      <c r="BD58" s="2">
         <v>45101</v>
       </c>
     </row>
@@ -14345,47 +14515,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU59" t="inlineStr">
         <is>
           <t>"A code programmed in software R (R Core Team, 2019) can be available from the authors upon request."</t>
         </is>
       </c>
-      <c r="AT59" t="inlineStr">
+      <c r="AV59" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV59" t="inlineStr">
+      <c r="AX59" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW59" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX59" t="inlineStr">
+      <c r="AY59" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
       <c r="AZ59" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB59" t="inlineStr">
+        <is>
           <t>apparently, these are somehow two simulation studies, with the prior of the latter being based on the first one. Is not very clear to me, and reporting is a bit unstructured</t>
         </is>
       </c>
-      <c r="BA59" t="inlineStr">
+      <c r="BC59" t="inlineStr">
         <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BB59" s="2">
+      <c r="BD59" s="2">
         <v>45091</v>
       </c>
     </row>
@@ -14595,60 +14765,65 @@
       </c>
       <c r="AQ60" t="inlineStr">
         <is>
-          <t>SAS, Mplus</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AR60" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AS60" t="inlineStr">
+          <t>Mplus</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AU60" t="inlineStr">
         <is>
           <t>they use their own Mplus Syntax</t>
         </is>
       </c>
-      <c r="AT60" t="inlineStr">
+      <c r="AV60" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AU60" t="inlineStr">
+      <c r="AW60" t="inlineStr">
         <is>
           <t>printed in the paper</t>
         </is>
       </c>
-      <c r="AV60" t="inlineStr">
+      <c r="AX60" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW60" t="inlineStr">
+      <c r="AY60" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX60" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY60" t="inlineStr">
+      <c r="AZ60" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA60" t="inlineStr">
         <is>
           <t>unsure how much would be needed to report for SAS, they provide SAS version - maybe this covers all relevant versions? Same for Mplus. They provide code for model fitting, but not for simulation, which is why I put "not accessible"</t>
         </is>
       </c>
-      <c r="AZ60" t="inlineStr">
+      <c r="BB60" t="inlineStr">
         <is>
           <t>nice ANOVA logic in the results</t>
         </is>
       </c>
-      <c r="BA60" t="inlineStr">
+      <c r="BC60" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB60" s="2">
+      <c r="BD60" s="2">
         <v>45091</v>
       </c>
     </row>
@@ -14861,47 +15036,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT61" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV61" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV61" t="inlineStr">
+      <c r="AX61" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW61" t="inlineStr">
+      <c r="AY61" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX61" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY61" t="inlineStr">
+      <c r="AZ61" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA61" t="inlineStr">
         <is>
           <t>code for examples provided, but not for simulation</t>
         </is>
       </c>
-      <c r="AZ61" t="inlineStr">
+      <c r="BB61" t="inlineStr">
         <is>
           <t>50 pages of figures/tables in the supplement</t>
         </is>
       </c>
-      <c r="BA61" t="inlineStr">
+      <c r="BC61" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB61" s="2">
+      <c r="BD61" s="2">
         <v>45090</v>
       </c>
     </row>
@@ -15114,47 +15289,47 @@
           <t>MATLAB</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT62" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV62" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV62" t="inlineStr">
+      <c r="AX62" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW62" t="inlineStr">
+      <c r="AY62" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AX62" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY62" t="inlineStr">
+      <c r="AZ62" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA62" t="inlineStr">
         <is>
           <t>not sure what to put for "MATLAB 2017b". I guess it's enough to reproduce everything?</t>
         </is>
       </c>
-      <c r="AZ62" t="inlineStr">
+      <c r="BB62" t="inlineStr">
         <is>
           <t>not sure where to count different chi square cutoffs, they don't count it as a condition. Includes ANOVA, so this kind of includes uncertainty (maybe)?. Includes SD of SE Bias, I interpret this as MC uncertainty measure in the same way as boxplots would be</t>
         </is>
       </c>
-      <c r="BA62" t="inlineStr">
+      <c r="BC62" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB62" s="2">
+      <c r="BD62" s="2">
         <v>45092</v>
       </c>
     </row>
@@ -15362,47 +15537,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU63" t="inlineStr">
         <is>
           <t>"We attempt to bridge this gap for Bayesian reliability analysis by introducing an R-package that contains the proposed methodology."</t>
         </is>
       </c>
-      <c r="AT63" t="inlineStr">
+      <c r="AV63" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV63" t="inlineStr">
+      <c r="AX63" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW63" t="inlineStr">
+      <c r="AY63" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AX63" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY63" t="inlineStr">
+      <c r="AZ63" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA63" t="inlineStr">
         <is>
           <t>only code for empirical example with seed, no code for sim</t>
         </is>
       </c>
-      <c r="BA63" t="inlineStr">
+      <c r="BC63" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB63" s="2">
+      <c r="BD63" s="2">
         <v>45092</v>
       </c>
     </row>
@@ -15620,47 +15795,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT64" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV64" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV64" t="inlineStr">
+      <c r="AX64" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW64" t="inlineStr">
+      <c r="AY64" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX64" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY64" t="inlineStr">
+      <c r="AZ64" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA64" t="inlineStr">
         <is>
           <t>link to R code provided, but link is dead. The user has no public GitHub repos</t>
         </is>
       </c>
-      <c r="AZ64" t="inlineStr">
+      <c r="BB64" t="inlineStr">
         <is>
           <t>MC error in the form of standard deviations, CIs are also mentioned. Should have maybe just computed Ses</t>
         </is>
       </c>
-      <c r="BA64" t="inlineStr">
+      <c r="BC64" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB64" s="2">
+      <c r="BD64" s="2">
         <v>45095</v>
       </c>
     </row>
@@ -15863,47 +16038,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU65" t="inlineStr">
         <is>
           <t>"The Stan code of the proposed model is available from the Open Science Framework website (https://osf.io/zvxd2/)."</t>
         </is>
       </c>
-      <c r="AT65" t="inlineStr">
+      <c r="AV65" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV65" t="inlineStr">
+      <c r="AX65" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW65" t="inlineStr">
+      <c r="AY65" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AX65" t="inlineStr">
+      <c r="AZ65" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AY65" t="inlineStr">
+      <c r="BA65" t="inlineStr">
         <is>
           <t>link to R and Stan code, but not for simulation</t>
         </is>
       </c>
-      <c r="BA65" t="inlineStr">
+      <c r="BC65" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB65" s="2">
+      <c r="BD65" s="2">
         <v>45095</v>
       </c>
     </row>
@@ -16111,47 +16286,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT66" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV66" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV66" t="inlineStr">
+      <c r="AX66" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW66" t="inlineStr">
+      <c r="AY66" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX66" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY66" t="inlineStr">
+      <c r="AZ66" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA66" t="inlineStr">
         <is>
           <t>they provide CPU and RAM information, but not OS</t>
         </is>
       </c>
-      <c r="AZ66" t="inlineStr">
+      <c r="BB66" t="inlineStr">
         <is>
           <t>uncertainty with boxplots and ANOVA thinking. Relatively good</t>
         </is>
       </c>
-      <c r="BA66" t="inlineStr">
+      <c r="BC66" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB66" s="2">
+      <c r="BD66" s="2">
         <v>45095</v>
       </c>
     </row>
@@ -16361,50 +16536,55 @@
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>R, MATLAB</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS67" t="inlineStr">
+          <t>MATLAB</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU67" t="inlineStr">
         <is>
           <t>"wrote a MATLAB code for the other approaches."</t>
         </is>
       </c>
-      <c r="AT67" t="inlineStr">
+      <c r="AV67" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV67" t="inlineStr">
+      <c r="AX67" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW67" t="inlineStr">
+      <c r="AY67" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AX67" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY67" t="inlineStr">
+      <c r="AZ67" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA67" t="inlineStr">
         <is>
           <t>"The MATLAB code is available from the first author upon request."</t>
         </is>
       </c>
-      <c r="BA67" t="inlineStr">
+      <c r="BC67" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB67" s="2">
+      <c r="BD67" s="2">
         <v>45145</v>
       </c>
     </row>
@@ -16607,52 +16787,52 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU68" t="inlineStr">
         <is>
           <t>"we reproduced both the R psych and SPSS implementations in the EFAtools package in R "</t>
         </is>
       </c>
-      <c r="AT68" t="inlineStr">
+      <c r="AV68" t="inlineStr">
         <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU68" t="inlineStr">
+      <c r="AW68" t="inlineStr">
         <is>
           <t>https://osf.io/a836q and https://github.com/mdsteiner/efacomp_OSF</t>
         </is>
       </c>
-      <c r="AV68" t="inlineStr">
+      <c r="AX68" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW68" t="inlineStr">
+      <c r="AY68" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX68" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY68" t="inlineStr">
+      <c r="AZ68" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA68" t="inlineStr">
         <is>
           <t>at first sight well organized code repository, however, I can't find information on OS + software versions. Surprisingly I can't find a set.seed command anywhere after looking through the files</t>
         </is>
       </c>
-      <c r="BA68" t="inlineStr">
+      <c r="BC68" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB68" s="2">
+      <c r="BD68" s="2">
         <v>45078</v>
       </c>
     </row>
@@ -16850,52 +17030,52 @@
           <t>MATLAB</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU69" t="inlineStr">
         <is>
           <t>both the program code and the tutorial can be freely downloaded from https://github.com/MirkoZanon/GeNEsIS</t>
         </is>
       </c>
-      <c r="AT69" t="inlineStr">
+      <c r="AV69" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AU69" t="inlineStr">
+      <c r="AW69" t="inlineStr">
         <is>
           <t>https://github.com/MirkoZanon/GeNEsIS</t>
         </is>
       </c>
-      <c r="AV69" t="inlineStr">
+      <c r="AX69" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW69" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX69" t="inlineStr">
+      <c r="AY69" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ69" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AY69" t="inlineStr">
+      <c r="BA69" t="inlineStr">
         <is>
           <t>there is a folder "Comparison simulations with other softwares" but there is no code to reproduce the simulations, only data files. Versions for running the program are reported, but not for the simulation study.</t>
         </is>
       </c>
-      <c r="BA69" t="inlineStr">
+      <c r="BC69" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB69" s="2">
+      <c r="BD69" s="2">
         <v>45078</v>
       </c>
     </row>
@@ -17098,52 +17278,52 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU70" t="inlineStr">
         <is>
           <t>Several of the algorithms are already implemented in the Python package Eyekit (https://jwcarr. github.io/eyekit/) and the R package popEye (https://github. com/sascha2schroeder/popEye),</t>
         </is>
       </c>
-      <c r="AT70" t="inlineStr">
+      <c r="AV70" t="inlineStr">
         <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU70" t="inlineStr">
+      <c r="AW70" t="inlineStr">
         <is>
           <t>https://github.com/jwcarr/drift</t>
         </is>
       </c>
-      <c r="AV70" t="inlineStr">
+      <c r="AX70" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW70" t="inlineStr">
+      <c r="AY70" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX70" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AY70" t="inlineStr">
+      <c r="AZ70" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA70" t="inlineStr">
         <is>
           <t>There is a requirements.txt with all necessary software versions that can be used with python virtual environments</t>
         </is>
       </c>
-      <c r="BA70" t="inlineStr">
+      <c r="BC70" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB70" s="2">
+      <c r="BD70" s="2">
         <v>45078</v>
       </c>
     </row>
@@ -17348,45 +17528,50 @@
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
-          <t>R, Mplus</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR71" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Mplus</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV71" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU71" t="inlineStr">
+      <c r="AW71" t="inlineStr">
         <is>
           <t>https://osf.io/y98sj/</t>
         </is>
       </c>
-      <c r="AV71" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW71" t="inlineStr">
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AX71" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA71" t="inlineStr">
+      <c r="AZ71" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC71" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB71" s="2">
+      <c r="BD71" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -17584,42 +17769,42 @@
           <t>MATLAB</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="AT72" t="inlineStr">
+      <c r="AV72" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AU72" t="inlineStr">
+      <c r="AW72" t="inlineStr">
         <is>
           <t>https://osf.io/zxmpf/</t>
         </is>
       </c>
-      <c r="AV72" t="inlineStr">
+      <c r="AX72" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW72" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX72" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA72" t="inlineStr">
+      <c r="AY72" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ72" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC72" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB72" s="2">
+      <c r="BD72" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -17822,42 +18007,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT73" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV73" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU73" t="inlineStr">
+      <c r="AW73" t="inlineStr">
         <is>
           <t>https://github.com/jmbh/NetworkGroupDifferences</t>
         </is>
       </c>
-      <c r="AV73" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW73" t="inlineStr">
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr">
         <is>
           <t>fully</t>
         </is>
       </c>
-      <c r="AX73" t="inlineStr">
+      <c r="AZ73" t="inlineStr">
         <is>
           <t>fully</t>
         </is>
       </c>
-      <c r="BA73" t="inlineStr">
+      <c r="BC73" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB73" s="2">
+      <c r="BD73" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -18047,45 +18232,50 @@
       </c>
       <c r="AQ74" t="inlineStr">
         <is>
-          <t>R, Stan</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR74" t="inlineStr">
         <is>
+          <t>Stan</t>
+        </is>
+      </c>
+      <c r="AT74" t="inlineStr">
+        <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="AT74" t="inlineStr">
+      <c r="AV74" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AU74" t="inlineStr">
+      <c r="AW74" t="inlineStr">
         <is>
           <t>https://osf.io/hvkfn/</t>
         </is>
       </c>
-      <c r="AV74" t="inlineStr">
+      <c r="AX74" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW74" t="inlineStr">
+      <c r="AY74" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX74" t="inlineStr">
+      <c r="AZ74" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="BA74" t="inlineStr">
+      <c r="BC74" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB74" s="2">
+      <c r="BD74" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -18280,40 +18470,45 @@
       </c>
       <c r="AQ75" t="inlineStr">
         <is>
-          <t>R, flexMIRT</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR75" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>flexMIRT</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV75" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV75" t="inlineStr">
+      <c r="AX75" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA75" t="inlineStr">
+      <c r="AY75" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ75" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC75" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB75" s="2">
+      <c r="BD75" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -18508,50 +18703,55 @@
       </c>
       <c r="AQ76" t="inlineStr">
         <is>
-          <t>R, SAS</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR76" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS76" t="inlineStr">
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="AT76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU76" t="inlineStr">
         <is>
           <t>R code for the transformation and the significance tests under this condition are provided below</t>
         </is>
       </c>
-      <c r="AT76" t="inlineStr">
+      <c r="AV76" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AU76" t="inlineStr">
+      <c r="AW76" t="inlineStr">
         <is>
           <t>https://osf.io/rtyg7/</t>
         </is>
       </c>
-      <c r="AV76" t="inlineStr">
+      <c r="AX76" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW76" t="inlineStr">
+      <c r="AY76" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AX76" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA76" t="inlineStr">
+      <c r="AZ76" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC76" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB76" s="2">
+      <c r="BD76" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -18749,42 +18949,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT77" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV77" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU77" t="inlineStr">
+      <c r="AW77" t="inlineStr">
         <is>
           <t>https://osf.io/p5v6y/?view_only=fcdffbd2335b419487b452907ce2c3d0</t>
         </is>
       </c>
-      <c r="AV77" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW77" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA77" t="inlineStr">
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ77" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC77" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB77" s="2">
+      <c r="BD77" s="2">
         <v>45096</v>
       </c>
     </row>
@@ -18984,45 +19184,50 @@
       </c>
       <c r="AQ78" t="inlineStr">
         <is>
-          <t>R, Python</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AR78" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV78" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU78" t="inlineStr">
+      <c r="AW78" t="inlineStr">
         <is>
           <t>https://osf.io/qfxpr/</t>
         </is>
       </c>
-      <c r="AV78" t="inlineStr">
+      <c r="AX78" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW78" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX78" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA78" t="inlineStr">
+      <c r="AY78" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ78" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC78" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB78" s="2">
+      <c r="BD78" s="2">
         <v>45098</v>
       </c>
     </row>
@@ -19227,45 +19432,50 @@
       </c>
       <c r="AQ79" t="inlineStr">
         <is>
-          <t>MATLAB, R</t>
+          <t>MATLAB</t>
         </is>
       </c>
       <c r="AR79" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS79" t="inlineStr">
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AT79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU79" t="inlineStr">
         <is>
           <t>"(The JAGS codes for HRM-SIC and HRM-LC are provided in Appendices 3 and 4 in the online supplement, respectively)"</t>
         </is>
       </c>
-      <c r="AT79" t="inlineStr">
+      <c r="AV79" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV79" t="inlineStr">
+      <c r="AX79" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW79" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX79" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA79" t="inlineStr">
+      <c r="AY79" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ79" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC79" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB79" s="2">
+      <c r="BD79" s="2">
         <v>45098</v>
       </c>
     </row>
@@ -19463,37 +19673,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT80" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV80" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV80" t="inlineStr">
+      <c r="AX80" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW80" t="inlineStr">
+      <c r="AY80" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX80" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA80" t="inlineStr">
+      <c r="AZ80" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC80" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB80" s="2">
+      <c r="BD80" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -19696,42 +19906,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT81" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV81" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU81" t="inlineStr">
+      <c r="AW81" t="inlineStr">
         <is>
           <t>https://github.com/LTrichtinger/Bootstrap_Test</t>
         </is>
       </c>
-      <c r="AV81" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AW81" t="inlineStr">
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX81" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA81" t="inlineStr">
+      <c r="AZ81" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC81" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB81" s="2">
+      <c r="BD81" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -19929,42 +20139,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT82" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV82" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU82" t="inlineStr">
+      <c r="AW82" t="inlineStr">
         <is>
           <t>https://doi.org/10.17605/OSF.IO/3FERB</t>
         </is>
       </c>
-      <c r="AV82" t="inlineStr">
+      <c r="AX82" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW82" t="inlineStr">
+      <c r="AY82" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX82" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA82" t="inlineStr">
+      <c r="AZ82" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC82" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB82" s="2">
+      <c r="BD82" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -20167,37 +20377,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT83" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV83" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV83" t="inlineStr">
+      <c r="AX83" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW83" t="inlineStr">
+      <c r="AY83" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AX83" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA83" t="inlineStr">
+      <c r="AZ83" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC83" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB83" s="2">
+      <c r="BD83" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -20400,47 +20610,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU84" t="inlineStr">
         <is>
           <t>"A self-generated Bayesian sampler in R (R core Team, 2018) was used for par- ameter estimation  The R codefor the Bayesian sampler is included in the supple-mentary material https://doi.org/10.1080/00273171.2021.1932403"</t>
         </is>
       </c>
-      <c r="AT84" t="inlineStr">
+      <c r="AV84" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV84" t="inlineStr">
+      <c r="AX84" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW84" t="inlineStr">
+      <c r="AY84" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX84" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AZ84" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB84" t="inlineStr">
+        <is>
           <t>supplementary material not findable, similar to other MBRM articles</t>
         </is>
       </c>
-      <c r="BA84" t="inlineStr">
+      <c r="BC84" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB84" s="2">
+      <c r="BD84" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -20643,42 +20853,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU85" t="inlineStr">
         <is>
           <t>"we provide rstan code for implementing the proposed method" https://github.com/sgolchi/PowerPriorMediation</t>
         </is>
       </c>
-      <c r="AT85" t="inlineStr">
+      <c r="AV85" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV85" t="inlineStr">
+      <c r="AX85" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW85" t="inlineStr">
+      <c r="AY85" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX85" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA85" t="inlineStr">
+      <c r="AZ85" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC85" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB85" s="2">
+      <c r="BD85" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -20876,37 +21086,37 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT86" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV86" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV86" t="inlineStr">
+      <c r="AX86" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW86" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX86" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA86" t="inlineStr">
+      <c r="AY86" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ86" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC86" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB86" s="2">
+      <c r="BD86" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -21104,37 +21314,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT87" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV87" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV87" t="inlineStr">
+      <c r="AX87" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW87" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX87" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA87" t="inlineStr">
+      <c r="AY87" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ87" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC87" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB87" s="2">
+      <c r="BD87" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -21337,42 +21547,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS88" t="inlineStr">
+      <c r="AT88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU88" t="inlineStr">
         <is>
           <t>"e provide OpenMx code and Mplus 8 syntax in the first author website (https://github.com/ Veronica0206/Extension_projects) to demonstrate how to trans- form the estimated mean vector and variance-covariance structure of reparameterized growth factors to those in the original setting"</t>
         </is>
       </c>
-      <c r="AT88" t="inlineStr">
+      <c r="AV88" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV88" t="inlineStr">
+      <c r="AX88" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW88" t="inlineStr">
+      <c r="AY88" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX88" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA88" t="inlineStr">
+      <c r="AZ88" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC88" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB88" s="2">
+      <c r="BD88" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -21565,42 +21775,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT89" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV89" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU89" t="inlineStr">
+      <c r="AW89" t="inlineStr">
         <is>
           <t>https://github.com/wwloh/social-influence-interference</t>
         </is>
       </c>
-      <c r="AV89" t="inlineStr">
+      <c r="AX89" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW89" t="inlineStr">
+      <c r="AY89" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX89" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA89" t="inlineStr">
+      <c r="AZ89" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC89" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB89" s="2">
+      <c r="BD89" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -21793,42 +22003,42 @@
           <t>Mplus</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT90" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV90" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU90" t="inlineStr">
+      <c r="AW90" t="inlineStr">
         <is>
           <t>https://supp.apa.org/psycarticles/supplemental/met0000295/met0000295_supp.html</t>
         </is>
       </c>
-      <c r="AV90" t="inlineStr">
+      <c r="AX90" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW90" t="inlineStr">
+      <c r="AY90" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX90" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA90" t="inlineStr">
+      <c r="AZ90" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC90" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB90" s="2">
+      <c r="BD90" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -22026,42 +22236,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU91" t="inlineStr">
         <is>
           <t>"With this article come R functions that can be used to apply the approach prosed in combination with the R package bain (https://informative-hypotheses.sites.uu.nl/software/bain/)"</t>
         </is>
       </c>
-      <c r="AT91" t="inlineStr">
+      <c r="AV91" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV91" t="inlineStr">
+      <c r="AX91" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW91" t="inlineStr">
+      <c r="AY91" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX91" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA91" t="inlineStr">
+      <c r="AZ91" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC91" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB91" s="2">
+      <c r="BD91" s="2">
         <v>45099</v>
       </c>
     </row>
@@ -22259,42 +22469,42 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS92" t="inlineStr">
+      <c r="AT92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU92" t="inlineStr">
         <is>
           <t>"See Appendix E in the online supplementary materials for a synthetic data set for use in trying out R code for the WCLS estimator."</t>
         </is>
       </c>
-      <c r="AT92" t="inlineStr">
+      <c r="AV92" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV92" t="inlineStr">
+      <c r="AX92" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW92" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX92" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA92" t="inlineStr">
+      <c r="AY92" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ92" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC92" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB92" s="2">
+      <c r="BD92" s="2">
         <v>45103</v>
       </c>
     </row>
@@ -22497,47 +22707,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU93" t="inlineStr">
         <is>
           <t>"To facilitate this shift, we have implemented the nonregularized approach for predictability in R package GGMnonreg"</t>
         </is>
       </c>
-      <c r="AT93" t="inlineStr">
+      <c r="AV93" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AU93" t="inlineStr">
+      <c r="AW93" t="inlineStr">
         <is>
           <t>https://osf.io/fm92b/</t>
         </is>
       </c>
-      <c r="AV93" t="inlineStr">
+      <c r="AX93" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW93" t="inlineStr">
+      <c r="AY93" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX93" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA93" t="inlineStr">
+      <c r="AZ93" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC93" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB93" s="2">
+      <c r="BD93" s="2">
         <v>45103</v>
       </c>
     </row>
@@ -22735,42 +22945,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT94" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV94" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU94" t="inlineStr">
+      <c r="AW94" t="inlineStr">
         <is>
           <t>https://osf.io/ghw37/</t>
         </is>
       </c>
-      <c r="AV94" t="inlineStr">
+      <c r="AX94" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW94" t="inlineStr">
+      <c r="AY94" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AX94" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA94" t="inlineStr">
+      <c r="AZ94" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC94" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB94" s="2">
+      <c r="BD94" s="2">
         <v>45104</v>
       </c>
     </row>
@@ -22968,37 +23178,37 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT95" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV95" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV95" t="inlineStr">
+      <c r="AX95" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW95" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX95" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA95" t="inlineStr">
+      <c r="AY95" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ95" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC95" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB95" s="2">
+      <c r="BD95" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -23196,37 +23406,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT96" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV96" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV96" t="inlineStr">
+      <c r="AX96" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW96" t="inlineStr">
+      <c r="AY96" t="inlineStr">
         <is>
           <t>partially</t>
         </is>
       </c>
-      <c r="AX96" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA96" t="inlineStr">
+      <c r="AZ96" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC96" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB96" s="2">
+      <c r="BD96" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -23419,42 +23629,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AS97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AU97" t="inlineStr">
         <is>
           <t>"To help researchers more easily use the proposed approach, we developed an R Shiny application, which can be accessed at https://qmliu.shinyapps.io/DACFE/. Our proposed method is implemented in our R package `DACF`."</t>
         </is>
       </c>
-      <c r="AT97" t="inlineStr">
+      <c r="AV97" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV97" t="inlineStr">
+      <c r="AX97" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW97" t="inlineStr">
+      <c r="AY97" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX97" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA97" t="inlineStr">
+      <c r="AZ97" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC97" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB97" s="2">
+      <c r="BD97" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -23652,42 +23862,42 @@
           <t>Java</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT98" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV98" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU98" t="inlineStr">
+      <c r="AW98" t="inlineStr">
         <is>
           <t>https://github.com/AI-Behaviormetrics/MfrmLinking</t>
         </is>
       </c>
-      <c r="AV98" t="inlineStr">
+      <c r="AX98" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW98" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX98" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA98" t="inlineStr">
+      <c r="AY98" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ98" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC98" t="inlineStr">
         <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BB98" s="2">
+      <c r="BD98" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -23890,42 +24100,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT99" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV99" t="inlineStr">
+        <is>
           <t>accessible online</t>
         </is>
       </c>
-      <c r="AU99" t="inlineStr">
+      <c r="AW99" t="inlineStr">
         <is>
           <t>https://osf.io/wpcqx/</t>
         </is>
       </c>
-      <c r="AV99" t="inlineStr">
+      <c r="AX99" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW99" t="inlineStr">
+      <c r="AY99" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX99" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA99" t="inlineStr">
+      <c r="AZ99" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC99" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BB99" s="2">
+      <c r="BD99" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -24128,37 +24338,37 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT100" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV100" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV100" t="inlineStr">
+      <c r="AX100" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW100" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AX100" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA100" t="inlineStr">
+      <c r="AY100" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AZ100" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC100" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB100" s="2">
+      <c r="BD100" s="2">
         <v>45106</v>
       </c>
     </row>
@@ -24366,37 +24576,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="AT101" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AV101" t="inlineStr">
+        <is>
           <t>not accessible</t>
         </is>
       </c>
-      <c r="AV101" t="inlineStr">
+      <c r="AX101" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="AW101" t="inlineStr">
+      <c r="AY101" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="AX101" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BA101" t="inlineStr">
+      <c r="AZ101" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC101" t="inlineStr">
         <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BB101" s="2">
+      <c r="BD101" s="2">
         <v>45106</v>
       </c>
     </row>

--- a/data/sim_res_fac.xlsx
+++ b/data/sim_res_fac.xlsx
@@ -12587,6 +12587,9 @@
           <t>medium</t>
         </is>
       </c>
+      <c r="BD51" s="2">
+        <v>45099</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12837,6 +12840,9 @@
           <t>great</t>
         </is>
       </c>
+      <c r="BD52" s="2">
+        <v>45099</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13200,6 +13206,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="Z54" t="inlineStr">
         <is>
           <t>estimation</t>
@@ -13453,6 +13464,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="Z55" t="inlineStr">
         <is>
           <t>testing</t>
@@ -13683,7 +13699,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -13696,6 +13712,11 @@
           <t>known</t>
         </is>
       </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="Z56" t="inlineStr">
         <is>
           <t>testing</t>
@@ -13794,6 +13815,11 @@
       <c r="AY56" t="inlineStr">
         <is>
           <t>partially</t>
+        </is>
+      </c>
+      <c r="AZ56" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
       <c r="BA56" t="inlineStr">
@@ -16591,7 +16617,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B68">
@@ -16669,7 +16695,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -16684,7 +16710,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -16839,7 +16865,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B69">
@@ -16912,7 +16938,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -16927,7 +16953,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -17082,7 +17108,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B70">
@@ -17160,7 +17186,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -17175,7 +17201,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -17330,7 +17356,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B71">
@@ -17408,7 +17434,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>2500.0</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -17428,7 +17454,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
@@ -17578,7 +17604,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B72">
@@ -17656,7 +17682,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -17671,7 +17697,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -17811,7 +17837,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B73">
@@ -17889,7 +17915,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>200.0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -17904,7 +17930,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>136</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -18049,7 +18075,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B74">
@@ -18127,7 +18153,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -18142,7 +18168,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -18196,6 +18222,11 @@
         </is>
       </c>
       <c r="AG74" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AH74" t="inlineStr">
         <is>
           <t>no</t>
         </is>
@@ -18282,7 +18313,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B75">
@@ -18360,7 +18391,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -18375,7 +18406,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
@@ -18515,7 +18546,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B76">
@@ -18593,7 +18624,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>2000.0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -18608,7 +18639,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
@@ -18758,7 +18789,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B77">
@@ -18836,7 +18867,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>500.0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -18851,7 +18882,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
@@ -18991,7 +19022,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B78">
@@ -19069,7 +19100,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -19084,7 +19115,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
@@ -19234,7 +19265,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B79">
@@ -19312,7 +19343,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -19332,7 +19363,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
@@ -19482,7 +19513,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B80">
@@ -19560,7 +19591,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>200.0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -19710,7 +19741,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B81">
@@ -19788,7 +19819,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -19803,7 +19834,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
@@ -19948,7 +19979,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B82">
@@ -20026,7 +20057,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -20041,7 +20072,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
@@ -20181,7 +20212,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B83">
@@ -20259,7 +20290,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -20414,7 +20445,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B84">
@@ -20492,7 +20523,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -20507,7 +20538,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -20657,7 +20688,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B85">
@@ -20735,7 +20766,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -20750,7 +20781,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -20895,7 +20926,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B86">
@@ -20973,7 +21004,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>500.0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -20988,7 +21019,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
@@ -21123,7 +21154,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B87">
@@ -21201,7 +21232,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -21351,7 +21382,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B88">
@@ -21429,7 +21460,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -21449,7 +21480,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
@@ -21589,7 +21620,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B89">
@@ -21662,7 +21693,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>10000.0</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -21677,7 +21708,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
@@ -21817,7 +21848,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>85</t>
         </is>
       </c>
       <c r="B90">
@@ -21895,7 +21926,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>500.0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -21910,7 +21941,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
@@ -21921,6 +21952,11 @@
       <c r="X90" t="inlineStr">
         <is>
           <t>known</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
@@ -22045,7 +22081,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>87</t>
         </is>
       </c>
       <c r="B91">
@@ -22123,7 +22159,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>10000.0</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -22138,7 +22174,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
@@ -22278,7 +22314,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>88</t>
         </is>
       </c>
       <c r="B92">
@@ -22371,7 +22407,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
@@ -22511,7 +22547,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B93">
@@ -22589,7 +22625,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -22754,7 +22790,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B94">
@@ -22832,7 +22868,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>500.0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -22847,7 +22883,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
@@ -22987,7 +23023,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>95</t>
         </is>
       </c>
       <c r="B95">
@@ -23065,7 +23101,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -23080,7 +23116,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
@@ -23215,7 +23251,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B96">
@@ -23293,7 +23329,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -23308,7 +23344,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
@@ -23443,7 +23479,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>105.0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B97">
@@ -23484,6 +23520,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>"to evaluate the performance of the aforementioned methods for the two-independent-groups mean t-test with ceiling data."</t>
@@ -23516,7 +23557,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -23531,7 +23572,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
@@ -23671,7 +23712,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B98">
@@ -23749,7 +23790,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -23904,7 +23945,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B99">
@@ -23982,7 +24023,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>500.0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -23997,7 +24038,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
@@ -24142,7 +24183,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B100">
@@ -24220,7 +24261,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -24235,7 +24276,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
@@ -24375,7 +24416,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B101">
@@ -24453,7 +24494,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">

--- a/data/sim_res_fac.xlsx
+++ b/data/sim_res_fac.xlsx
@@ -707,12 +707,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>162.0</t>
+          <t>162</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -955,12 +955,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -978,9 +978,19 @@
           <t>no</t>
         </is>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -990,7 +1000,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1133,7 +1143,8 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000386_x000D_</t>
+          <t xml:space="preserve">https://doi.org/10.1037/met0000386_x000D_
+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1183,12 +1194,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1198,7 +1209,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1216,6 +1227,11 @@
           <t>1?</t>
         </is>
       </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr">
         <is>
           <t>known</t>
@@ -1223,7 +1239,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1353,7 +1369,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B5">
@@ -1411,12 +1427,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1426,7 +1442,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>5000.0</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1441,7 +1457,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1456,7 +1472,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1586,7 +1602,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B6">
@@ -1644,12 +1660,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1659,7 +1675,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1674,7 +1690,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1689,7 +1705,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1809,7 +1825,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B7">
@@ -1872,12 +1888,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1887,7 +1903,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>10000.0</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1902,7 +1918,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1917,7 +1933,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2042,7 +2058,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B8">
@@ -2120,7 +2136,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -2135,7 +2151,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2270,7 +2286,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B9">
@@ -2328,12 +2344,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2343,7 +2359,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>500.0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2373,7 +2389,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2498,7 +2514,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B10">
@@ -2551,12 +2567,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>216.0</t>
+          <t>216</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2566,7 +2582,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2596,7 +2612,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2726,7 +2742,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B11">
@@ -2784,12 +2800,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2799,7 +2815,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2829,7 +2845,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2959,7 +2975,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B12">
@@ -3017,12 +3033,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -3062,7 +3078,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3197,7 +3213,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B13">
@@ -3255,12 +3271,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -3270,7 +3286,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>10000.0</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -3285,7 +3301,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3300,7 +3316,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3430,7 +3446,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B14">
@@ -3493,12 +3509,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>360.0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -3508,7 +3524,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>3000.0</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -3538,7 +3554,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3663,7 +3679,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B15">
@@ -3721,12 +3737,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3736,7 +3752,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>400.0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -3766,7 +3782,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3896,7 +3912,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B16">
@@ -3954,12 +3970,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3969,7 +3985,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>500.0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -3984,7 +4000,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -3999,7 +4015,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -4119,7 +4135,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B17">
@@ -4182,12 +4198,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -4197,7 +4213,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -4212,7 +4228,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -4227,7 +4243,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4357,7 +4373,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B18">
@@ -4420,12 +4436,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -4435,7 +4451,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -4465,7 +4481,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4595,7 +4611,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B19">
@@ -4653,12 +4669,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -4668,7 +4684,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2000.0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -4683,7 +4699,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -4698,7 +4714,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4823,7 +4839,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B20">
@@ -4881,12 +4897,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>72</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -4896,7 +4912,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>800.0</t>
+          <t>800</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -4911,7 +4927,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -4926,7 +4942,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -5056,7 +5072,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B21">
@@ -5119,12 +5135,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -5134,7 +5150,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -5149,7 +5165,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -5164,7 +5180,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5294,7 +5310,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B22">
@@ -5352,12 +5368,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -5367,7 +5383,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>2000.0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -5382,7 +5398,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -5397,7 +5413,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5532,7 +5548,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B23">
@@ -5590,12 +5606,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -5605,7 +5621,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>500.0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -5635,7 +5651,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5765,7 +5781,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B24">
@@ -5823,12 +5839,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -5838,7 +5854,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -5853,7 +5869,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -5868,7 +5884,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -6003,7 +6019,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B25">
@@ -6066,12 +6082,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -6081,7 +6097,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -6096,7 +6112,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -6111,7 +6127,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -6246,7 +6262,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B26">
@@ -6309,12 +6325,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>72</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -6324,7 +6340,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -6354,7 +6370,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -6479,7 +6495,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B27">
@@ -6542,12 +6558,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -6557,7 +6573,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -6587,7 +6603,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -6717,7 +6733,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B28">
@@ -6780,12 +6796,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>72</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -6795,7 +6811,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>5000.0</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -6810,7 +6826,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -6825,7 +6841,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -6960,7 +6976,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B29">
@@ -7023,12 +7039,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -7038,7 +7054,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -7053,7 +7069,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -7068,7 +7084,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -7193,7 +7209,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B30">
@@ -7246,12 +7262,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -7261,7 +7277,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -7276,7 +7292,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -7291,7 +7307,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -7416,7 +7432,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B31">
@@ -7474,7 +7490,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -7484,7 +7500,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -7524,7 +7540,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -7649,7 +7665,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B32">
@@ -7707,12 +7723,12 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1344.0</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -7722,7 +7738,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>5000.0</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -7742,7 +7758,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -7882,7 +7898,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B33">
@@ -7940,12 +7956,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -7955,7 +7971,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>5000.0</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -7985,7 +8001,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -8120,7 +8136,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B34">
@@ -8183,12 +8199,12 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -8198,7 +8214,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>200.0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -8228,7 +8244,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -8348,7 +8364,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B35">
@@ -8406,12 +8422,12 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>216.0</t>
+          <t>216</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -8421,7 +8437,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>500.0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -8451,7 +8467,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">

--- a/data/sim_res_fac.xlsx
+++ b/data/sim_res_fac.xlsx
@@ -1579,7 +1579,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5312,6 +5312,11 @@
           <t>"We used 800 replications in each condition to balance accuracy and computational time."</t>
         </is>
       </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr">
         <is>
           <t>6</t>
@@ -8010,7 +8015,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>large: sem model with multiple indicators etc</t>
+          <t>190</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -9878,7 +9883,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>anticlustering solutions</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
@@ -10435,7 +10440,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
@@ -10713,7 +10718,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>unclear</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
@@ -10894,6 +10899,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>"The goal of the simulation was to create different arrays for three numerosities (5, 10, 20 elements), keeping constant the convex hull (controlled at 150000 pixels) and the total area (controlled at 20000 pixels) across quantities" (p. 153)</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>parametric thin-air</t>
@@ -11415,9 +11430,19 @@
           <t>no</t>
         </is>
       </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>unclear</t>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>known</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -11598,6 +11623,11 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>"it specifically focused on how the identification constraint influences the information criteria" (p. 797)</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>parametric based on actual data</t>
@@ -11853,7 +11883,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -11893,7 +11923,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -11943,12 +11973,12 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>one-at-a-time</t>
+          <t>fully-factorial</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -12136,7 +12166,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -12176,7 +12206,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -12276,7 +12306,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>estimation, model selection</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -12439,7 +12469,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -12479,7 +12509,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -12579,7 +12609,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>design, estimation</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -12732,7 +12762,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -12980,7 +13010,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -13293,12 +13323,12 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>one-at-a-time</t>
+          <t>fully-factorial</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -13536,12 +13566,12 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>one-at-a-time</t>
+          <t>fully-factorial</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -14052,12 +14082,12 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>one-at-a-time</t>
+          <t>fully-factorial</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -15615,6 +15645,11 @@
           <t>parametric thin-air</t>
         </is>
       </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="N111" t="inlineStr">
         <is>
           <t>1296.0</t>
@@ -16060,7 +16095,7 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>estimation, testing</t>
         </is>
       </c>
       <c r="AA115" t="inlineStr">
@@ -17346,7 +17381,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>estimation, testing</t>
         </is>
       </c>
       <c r="AA136" t="inlineStr">
@@ -19957,6 +19992,16 @@
           <t>"we describe the simulation study that was conducted to evaluate the performance of the original SPRT and the newly proposed SPRT in terms of the percentage of correct classifications and average test lengths in grid MCCTs."</t>
         </is>
       </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>parametric thin-air</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="N170" t="inlineStr">
         <is>
           <t>33.0</t>
@@ -20242,7 +20287,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -20282,7 +20327,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -20535,7 +20580,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -20808,7 +20853,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -20908,7 +20953,7 @@
       </c>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>estimation, testing</t>
         </is>
       </c>
       <c r="AA176" t="inlineStr">
@@ -21066,7 +21111,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -21166,7 +21211,7 @@
       </c>
       <c r="Z177" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>estimation, model selection</t>
         </is>
       </c>
       <c r="AA177" t="inlineStr">
@@ -21324,7 +21369,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -21480,6 +21525,11 @@
       <c r="AK178" t="inlineStr">
         <is>
           <t>bias and CI width not defined as PM, but then interpreted from a figure</t>
+        </is>
+      </c>
+      <c r="AL178" t="inlineStr">
+        <is>
+          <t>nowhere</t>
         </is>
       </c>
       <c r="AM178" t="inlineStr">
@@ -21577,7 +21627,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -21840,7 +21890,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -22088,7 +22138,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -22872,7 +22922,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -22972,7 +23022,7 @@
       </c>
       <c r="Z184" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>estimation, classification</t>
         </is>
       </c>
       <c r="AA184" t="inlineStr">
@@ -23646,7 +23696,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -23746,7 +23796,7 @@
       </c>
       <c r="Z187" t="inlineStr">
         <is>
-          <t>model selection</t>
+          <t>model selection, testing</t>
         </is>
       </c>
       <c r="AA187" t="inlineStr">
@@ -23932,6 +23982,11 @@
           <t>"In Study 1, we examine the performance of 2S-PA as compared with full SEM and alternative measurement error adjustment methods when there is measurement error on the predictor."</t>
         </is>
       </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>parametric thin-air</t>
+        </is>
+      </c>
       <c r="M188" t="inlineStr">
         <is>
           <t>yes</t>
@@ -23994,7 +24049,7 @@
       </c>
       <c r="Z188" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>estimation, testing</t>
         </is>
       </c>
       <c r="AA188" t="inlineStr">
@@ -29607,7 +29662,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -29840,7 +29895,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -30083,7 +30138,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -30321,7 +30376,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -30559,7 +30614,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -30807,7 +30862,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -31050,7 +31105,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -31093,7 +31148,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -31326,7 +31381,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -37137,7 +37192,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -37380,7 +37435,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -37673,7 +37728,7 @@
       </c>
       <c r="P336" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q336" t="inlineStr">
@@ -38104,7 +38159,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -38347,7 +38402,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>MBRM</t>
+          <t>MBR</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">

--- a/data/sim_res_fac.xlsx
+++ b/data/sim_res_fac.xlsx
@@ -5194,7 +5194,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -8779,7 +8779,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -10127,7 +10127,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -11590,7 +11590,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -13258,7 +13258,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -13764,7 +13764,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -14290,7 +14290,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -14330,7 +14330,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -14370,7 +14370,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -14410,7 +14410,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -14450,7 +14450,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -14713,7 +14713,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -14753,7 +14753,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -15259,7 +15259,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -15552,7 +15552,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -15597,7 +15597,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -15860,7 +15860,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -15945,7 +15945,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -15990,7 +15990,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -16248,7 +16248,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -16288,7 +16288,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -16368,7 +16368,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -16488,7 +16488,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -16528,7 +16528,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -16568,7 +16568,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -16991,7 +16991,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -17031,7 +17031,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -17111,7 +17111,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -17151,7 +17151,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -17191,7 +17191,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -17271,7 +17271,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -17529,7 +17529,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -17569,7 +17569,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -17609,7 +17609,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -17649,7 +17649,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -17689,7 +17689,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -17942,7 +17942,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -17982,7 +17982,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -18245,7 +18245,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -18285,7 +18285,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -18578,7 +18578,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -18623,7 +18623,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -18663,7 +18663,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -18748,7 +18748,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -18788,7 +18788,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -18828,7 +18828,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -18868,7 +18868,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -18908,7 +18908,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -19196,7 +19196,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -19241,7 +19241,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -19281,7 +19281,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -19321,7 +19321,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -19361,7 +19361,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -19401,7 +19401,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -19441,7 +19441,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -19481,7 +19481,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -19521,7 +19521,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -19561,7 +19561,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -19601,7 +19601,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -19641,7 +19641,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -19949,7 +19949,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -20197,7 +20197,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -20237,7 +20237,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -20277,7 +20277,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -20317,7 +20317,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -20570,7 +20570,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -20843,7 +20843,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -21101,7 +21101,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -21617,7 +21617,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -22128,7 +22128,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -22381,7 +22381,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -22912,7 +22912,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -23433,7 +23433,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -26851,7 +26851,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -27094,7 +27094,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -27332,7 +27332,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -27375,7 +27375,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -27418,7 +27418,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -27461,7 +27461,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -27504,7 +27504,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -27547,7 +27547,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -27590,7 +27590,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -27838,7 +27838,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -27881,7 +27881,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -27924,7 +27924,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -27967,7 +27967,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -28205,7 +28205,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -28248,7 +28248,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -28291,7 +28291,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -28334,7 +28334,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -28377,7 +28377,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -28420,7 +28420,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -28463,7 +28463,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -28506,7 +28506,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -28549,7 +28549,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -28592,7 +28592,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -28883,7 +28883,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -28926,7 +28926,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -29179,7 +29179,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -29222,7 +29222,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -29265,7 +29265,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -29308,7 +29308,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -29351,7 +29351,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -29394,7 +29394,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -29437,7 +29437,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -29480,7 +29480,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -29523,7 +29523,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -29566,7 +29566,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -29609,7 +29609,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -29652,7 +29652,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -29885,7 +29885,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -30128,7 +30128,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -30366,7 +30366,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -30604,7 +30604,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -30852,7 +30852,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -31095,7 +31095,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -31138,7 +31138,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -31371,7 +31371,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -31414,7 +31414,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -31647,7 +31647,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -31690,7 +31690,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -31733,7 +31733,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -31976,7 +31976,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -32209,7 +32209,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -32447,7 +32447,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -32490,7 +32490,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -32728,7 +32728,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -32966,7 +32966,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -35188,7 +35188,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -35231,7 +35231,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -35274,7 +35274,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -35317,7 +35317,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -35360,7 +35360,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -35598,7 +35598,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -35641,7 +35641,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -35684,7 +35684,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -35727,7 +35727,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -35770,7 +35770,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -35813,7 +35813,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -35856,7 +35856,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -35899,7 +35899,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -35942,7 +35942,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -36185,7 +36185,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -36228,7 +36228,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -36271,7 +36271,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -36314,7 +36314,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -36552,7 +36552,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -36595,7 +36595,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -36638,7 +36638,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -36681,7 +36681,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -36724,7 +36724,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -36767,7 +36767,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -36810,7 +36810,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -36853,7 +36853,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -36896,7 +36896,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -37139,7 +37139,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -37425,7 +37425,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -37668,7 +37668,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">

--- a/data/sim_res_fac.xlsx
+++ b/data/sim_res_fac.xlsx
@@ -13416,6 +13416,11 @@
           <t>standard deviations</t>
         </is>
       </c>
+      <c r="AJ96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="AL96" t="inlineStr">
         <is>
           <t>nowhere</t>
@@ -32022,6 +32027,11 @@
       <c r="L272" t="inlineStr">
         <is>
           <t>parametric thin-air</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">

--- a/data/sim_res_fac.xlsx
+++ b/data/sim_res_fac.xlsx
@@ -1244,8 +1244,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://doi.org/10.1037/met0000386_x000D_
-</t>
+          <t>https://doi.org/10.1037/met0000386</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1393,9 +1392,14 @@
           <t>means and standard deviations of the estimates</t>
         </is>
       </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>no clue</t>
+          <t>very complex</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -8692,6 +8696,11 @@
       <c r="AI64" t="inlineStr">
         <is>
           <t>relative bias, relative efficiency</t>
+        </is>
+      </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="AL64" t="inlineStr">

--- a/data/sim_res_fac.xlsx
+++ b/data/sim_res_fac.xlsx
@@ -15,9 +15,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -55,12 +52,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,14 +351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE339"/>
+  <dimension ref="A1:BA339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="56" max="56" width="20.7109375" style="2" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -597,55 +590,35 @@
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>userwrittenquote_q19</t>
+          <t>codeprovided_q20</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>codeprovided_q20</t>
+          <t>codelink_q20</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>codelink_q20</t>
+          <t>seedprovided_q21</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>seedprovided_q21</t>
+          <t>compenvironment_q22</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>compenvironment_q22</t>
+          <t>compos_q23</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>compos_q23</t>
+          <t>coding_confidence</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>reproducibilitynote</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>coding_confidence</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>dateofreview</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>coding_type</t>
         </is>
@@ -685,13 +658,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AW2" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD2" s="2">
-        <v>45082</v>
       </c>
     </row>
     <row r="3">
@@ -903,45 +873,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/secastroal/LST_Analyses</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>https://github.com/secastroal/LST_Analyses</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
-        <is>
-          <t>package and R/MPLus version, but not OS</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD3" s="2">
-        <v>45082</v>
-      </c>
-      <c r="BE3" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -1146,40 +1108,32 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
-        <is>
-          <t>only package name</t>
-        </is>
-      </c>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD4" s="2">
-        <v>45082</v>
-      </c>
-      <c r="BE4" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -1219,13 +1173,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD5" s="2">
-        <v>45082</v>
       </c>
     </row>
     <row r="6">
@@ -1437,14 +1388,19 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AV6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
@@ -1454,23 +1410,10 @@
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>extremely badly described and quite complicated paper -- I'm very unsure about the coding (the simulation starts at p. 89?)</t>
-        </is>
-      </c>
-      <c r="BC6" t="inlineStr">
-        <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BD6" s="2">
-        <v>45082</v>
-      </c>
-      <c r="BE6" t="inlineStr">
+      <c r="BA6" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -1510,13 +1453,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX7" t="inlineStr">
+      <c r="AW7" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD7" s="2">
-        <v>45082</v>
       </c>
     </row>
     <row r="8">
@@ -1553,13 +1493,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX8" t="inlineStr">
+      <c r="AW8" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD8" s="2">
-        <v>45082</v>
       </c>
     </row>
     <row r="9">
@@ -1756,45 +1693,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
-        <is>
-          <t>code only for example, not the sim study</t>
-        </is>
-      </c>
-      <c r="BB9" t="inlineStr">
-        <is>
-          <t>The sim study compares different fix indecies (based on a single ML model). So, although they are usually thought of as estimands, they serve as methods in this settings.</t>
-        </is>
-      </c>
-      <c r="BC9" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD9" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE9" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -1994,35 +1918,32 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AV10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC10" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD10" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE10" t="inlineStr">
+      <c r="BA10" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -2062,7 +1983,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX11" t="inlineStr">
+      <c r="AW11" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -2267,19 +2188,24 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/connorjmccabe/modglm/blob/master/mscode/imp2_simulation_logit_FINAL_github.R</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>https://github.com/connorjmccabe/modglm/blob/master/mscode/imp2_simulation_logit_FINAL_github.R</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
@@ -2289,18 +2215,10 @@
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC12" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD12" s="2">
-        <v>45105</v>
-      </c>
-      <c r="BE12" t="inlineStr">
+      <c r="BA12" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -2505,14 +2423,19 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AV13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
@@ -2522,18 +2445,10 @@
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC13" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD13" s="2">
-        <v>45105</v>
-      </c>
-      <c r="BE13" t="inlineStr">
+      <c r="BA13" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -2738,35 +2653,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC14" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD14" s="2">
-        <v>45105</v>
-      </c>
-      <c r="BE14" t="inlineStr">
+      <c r="BA14" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -2966,40 +2878,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>"The simulation codecan be requested from the last author of this paper."</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>"The simulation codecan be requested from the last author of this paper."</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC15" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD15" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE15" t="inlineStr">
+      <c r="BA15" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -3204,40 +3113,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/xhfqw</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>https://osf.io/xhfqw</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC16" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD16" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE16" t="inlineStr">
+      <c r="BA16" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -3442,45 +3348,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>"is available upon request from the corresponding author"</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>"is available upon request from the corresponding author"</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>fully</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
-        <is>
-          <t>including processor and RAM (because of the computational time comparison)</t>
-        </is>
-      </c>
-      <c r="BC17" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD17" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE17" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -3685,19 +3583,24 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>only data</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>only data</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -3707,18 +3610,10 @@
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC18" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD18" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE18" t="inlineStr">
+      <c r="BA18" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -3928,35 +3823,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV19" t="inlineStr">
+      <c r="AU19" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC19" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD19" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE19" t="inlineStr">
+      <c r="BA19" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -4161,40 +4053,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>"The code for data generation and calibration was written in R programming language (R Core Team, Citation2020) and can be requested from the author"</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>"The code for data generation and calibration was written in R programming language (R Core Team, Citation2020) and can be requested from the author"</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC20" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD20" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE20" t="inlineStr">
+      <c r="BA20" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -4394,35 +4283,32 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="AV21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ21" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC21" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD21" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE21" t="inlineStr">
+      <c r="BA21" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -4632,19 +4518,24 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>http://www.sta.cuhk.edu.hk/xysong/JHMM/</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>http://www.sta.cuhk.edu.hk/xysong/JHMM/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
@@ -4654,18 +4545,10 @@
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC22" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD22" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE22" t="inlineStr">
+      <c r="BA22" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -4705,7 +4588,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX23" t="inlineStr">
+      <c r="AW23" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -4920,14 +4803,19 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="AV24" t="inlineStr">
+      <c r="AU24" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
@@ -4937,18 +4825,10 @@
       </c>
       <c r="AZ24" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC24" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD24" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE24" t="inlineStr">
+      <c r="BA24" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -5148,40 +5028,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://figshare.com/articles/software/Multiple_imputation_in_data_that_grow_over_time/9902276</t>
         </is>
       </c>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>https://figshare.com/articles/software/Multiple_imputation_in_data_that_grow_over_time/9902276</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ25" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC25" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD25" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE25" t="inlineStr">
+      <c r="BA25" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -5221,7 +5098,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX26" t="inlineStr">
+      <c r="AW26" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5431,40 +5308,37 @@
           <t>unclear</t>
         </is>
       </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/Aaron0696/FIML_MI_JOC_MISSINGDATA</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>https://github.com/Aaron0696/FIML_MI_JOC_MISSINGDATA</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC27" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD27" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE27" t="inlineStr">
+      <c r="BA27" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -5504,7 +5378,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX28" t="inlineStr">
+      <c r="AW28" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5544,7 +5418,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX29" t="inlineStr">
+      <c r="AW29" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5584,7 +5458,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX30" t="inlineStr">
+      <c r="AW30" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5794,40 +5668,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>references previous simulation</t>
         </is>
       </c>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>references previous simulation</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ31" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC31" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD31" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE31" t="inlineStr">
+      <c r="BA31" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -5867,7 +5738,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX32" t="inlineStr">
+      <c r="AW32" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -5907,7 +5778,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX33" t="inlineStr">
+      <c r="AW33" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6112,45 +5983,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU34" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>http://faculty.missouri.edu/huangf/CR2/</t>
         </is>
       </c>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>http://faculty.missouri.edu/huangf/CR2/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ34" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB34" t="inlineStr">
-        <is>
-          <t>links to code on authors website but cannot be reached -- use open mantained repositories</t>
-        </is>
-      </c>
-      <c r="BC34" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD34" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE34" t="inlineStr">
+      <c r="BA34" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -6190,7 +6053,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX35" t="inlineStr">
+      <c r="AW35" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6230,7 +6093,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX36" t="inlineStr">
+      <c r="AW36" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6270,7 +6133,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX37" t="inlineStr">
+      <c r="AW37" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6310,7 +6173,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX38" t="inlineStr">
+      <c r="AW38" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6350,7 +6213,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX39" t="inlineStr">
+      <c r="AW39" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6555,40 +6418,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU40" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV40" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>(https://github.com/CynthiaXinTong/MedianGMM) only example, not full simulation script</t>
         </is>
       </c>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>(https://github.com/CynthiaXinTong/MedianGMM) only example, not full simulation script</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ40" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC40" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD40" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE40" t="inlineStr">
+      <c r="BA40" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -6628,7 +6488,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX41" t="inlineStr">
+      <c r="AW41" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6668,7 +6528,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX42" t="inlineStr">
+      <c r="AW42" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6708,7 +6568,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX43" t="inlineStr">
+      <c r="AW43" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6748,7 +6608,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX44" t="inlineStr">
+      <c r="AW44" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6788,7 +6648,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX45" t="inlineStr">
+      <c r="AW45" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6828,7 +6688,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX46" t="inlineStr">
+      <c r="AW46" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6868,7 +6728,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX47" t="inlineStr">
+      <c r="AW47" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6908,7 +6768,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX48" t="inlineStr">
+      <c r="AW48" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6948,7 +6808,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX49" t="inlineStr">
+      <c r="AW49" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -6988,7 +6848,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX50" t="inlineStr">
+      <c r="AW50" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -7028,7 +6888,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX51" t="inlineStr">
+      <c r="AW51" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -7233,45 +7093,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU52" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>"R codes can be made available upon request to the corresponding author"</t>
         </is>
       </c>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>"R codes can be made available upon request to the corresponding author"</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="AZ52" t="inlineStr">
         <is>
-          <t>fully</t>
+          <t>poor</t>
         </is>
       </c>
       <c r="BA52" t="inlineStr">
-        <is>
-          <t>A simulation study was conducted to evaluate the performance of the proposed GA for forced-choice item pairing.</t>
-        </is>
-      </c>
-      <c r="BC52" t="inlineStr">
-        <is>
-          <t>poor</t>
-        </is>
-      </c>
-      <c r="BD52" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE52" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -7311,7 +7163,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX53" t="inlineStr">
+      <c r="AW53" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -7351,7 +7203,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX54" t="inlineStr">
+      <c r="AW54" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -7391,7 +7243,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX55" t="inlineStr">
+      <c r="AW55" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -7431,7 +7283,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX56" t="inlineStr">
+      <c r="AW56" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -7643,43 +7495,35 @@
       </c>
       <c r="AU57" t="inlineStr">
         <is>
-          <t>they develop the package used for the methods</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/xdg3p/</t>
         </is>
       </c>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>https://osf.io/xdg3p/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ57" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC57" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD57" s="2">
-        <v>45100</v>
-      </c>
-      <c r="BE57" t="inlineStr">
+      <c r="BA57" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -7889,35 +7733,32 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="AV58" t="inlineStr">
+      <c r="AU58" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ58" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC58" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD58" s="2">
-        <v>45100</v>
-      </c>
-      <c r="BE58" t="inlineStr">
+      <c r="BA58" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -8127,40 +7968,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU59" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV59" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://supp.apa.org/psycarticles/supplemental/met0000385/met0000385Rcode_submission.R</t>
         </is>
       </c>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>https://supp.apa.org/psycarticles/supplemental/met0000385/met0000385Rcode_submission.R</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ59" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC59" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD59" s="2">
-        <v>45100</v>
-      </c>
-      <c r="BE59" t="inlineStr">
+      <c r="BA59" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -8375,40 +8213,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU60" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV60" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/h95vx/</t>
         </is>
       </c>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>https://osf.io/h95vx/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ60" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC60" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD60" s="2">
-        <v>45100</v>
-      </c>
-      <c r="BE60" t="inlineStr">
+      <c r="BA60" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -8448,7 +8283,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX61" t="inlineStr">
+      <c r="AW61" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -8488,7 +8323,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX62" t="inlineStr">
+      <c r="AW62" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -8528,7 +8363,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX63" t="inlineStr">
+      <c r="AW63" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -8738,40 +8573,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU64" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV64" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/bwk5t/</t>
         </is>
       </c>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>https://osf.io/bwk5t/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ64" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC64" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD64" s="2">
-        <v>45100</v>
-      </c>
-      <c r="BE64" t="inlineStr">
+      <c r="BA64" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -8811,7 +8643,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX65" t="inlineStr">
+      <c r="AW65" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -9011,35 +8843,32 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="AV66" t="inlineStr">
+      <c r="AU66" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ66" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC66" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD66" s="2">
-        <v>45107</v>
-      </c>
-      <c r="BE66" t="inlineStr">
+      <c r="BA66" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -9249,35 +9078,32 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="AV67" t="inlineStr">
+      <c r="AU67" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ67" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC67" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD67" s="2">
-        <v>45107</v>
-      </c>
-      <c r="BE67" t="inlineStr">
+      <c r="BA67" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -9317,7 +9143,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX68" t="inlineStr">
+      <c r="AW68" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -9357,7 +9183,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX69" t="inlineStr">
+      <c r="AW69" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -9397,7 +9223,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX70" t="inlineStr">
+      <c r="AW70" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -9437,7 +9263,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX71" t="inlineStr">
+      <c r="AW71" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -9477,7 +9303,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX72" t="inlineStr">
+      <c r="AW72" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -9517,7 +9343,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX73" t="inlineStr">
+      <c r="AW73" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -9557,7 +9383,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX74" t="inlineStr">
+      <c r="AW74" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -9762,40 +9588,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU75" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV75" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/5f732/?view_only=</t>
         </is>
       </c>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>https://osf.io/5f732/?view_only=</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ75" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC75" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD75" s="2">
-        <v>45110</v>
-      </c>
-      <c r="BE75" t="inlineStr">
+      <c r="BA75" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -10000,19 +9823,24 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU76" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV76" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/cd5sr/</t>
         </is>
       </c>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>https://osf.io/cd5sr/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr">
@@ -10022,23 +9850,10 @@
       </c>
       <c r="AZ76" t="inlineStr">
         <is>
-          <t>fully</t>
-        </is>
-      </c>
-      <c r="BB76" t="inlineStr">
-        <is>
-          <t>great example of citing packages with version numbers directly in text</t>
-        </is>
-      </c>
-      <c r="BC76" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD76" s="2">
-        <v>45110</v>
-      </c>
-      <c r="BE76" t="inlineStr">
+      <c r="BA76" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -10079,7 +9894,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX77" t="inlineStr">
+      <c r="AW77" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -10119,7 +9934,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX78" t="inlineStr">
+      <c r="AW78" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -10324,14 +10139,19 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="AV79" t="inlineStr">
+      <c r="AU79" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr">
@@ -10341,18 +10161,10 @@
       </c>
       <c r="AZ79" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC79" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD79" s="2">
-        <v>45110</v>
-      </c>
-      <c r="BE79" t="inlineStr">
+      <c r="BA79" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -10557,35 +10369,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV80" t="inlineStr">
+      <c r="AU80" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ80" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC80" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD80" s="2">
-        <v>45110</v>
-      </c>
-      <c r="BE80" t="inlineStr">
+      <c r="BA80" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -10625,7 +10434,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX81" t="inlineStr">
+      <c r="AW81" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -10830,19 +10639,24 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU82" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV82" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/AI-Behaviormetrics/MfrmLinking</t>
         </is>
       </c>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>https://github.com/AI-Behaviormetrics/MfrmLinking</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr">
@@ -10852,18 +10666,10 @@
       </c>
       <c r="AZ82" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC82" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD82" s="2">
-        <v>45141</v>
-      </c>
-      <c r="BE82" t="inlineStr">
+      <c r="BA82" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -11068,40 +10874,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU83" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV83" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>there is a link to the program, but there is no simulation study</t>
         </is>
       </c>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>there is a link to the program, but there is no simulation study</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="AZ83" t="inlineStr">
         <is>
-          <t>fully</t>
-        </is>
-      </c>
-      <c r="BC83" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD83" s="2">
-        <v>45141</v>
-      </c>
-      <c r="BE83" t="inlineStr">
+      <c r="BA83" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -11311,40 +11114,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU84" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV84" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/wpcqx/</t>
         </is>
       </c>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>https://osf.io/wpcqx/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ84" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC84" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD84" s="2">
-        <v>45141</v>
-      </c>
-      <c r="BE84" t="inlineStr">
+      <c r="BA84" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -11549,14 +11349,19 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="AV85" t="inlineStr">
+      <c r="AU85" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW85" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr">
@@ -11566,23 +11371,10 @@
       </c>
       <c r="AZ85" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB85" t="inlineStr">
-        <is>
-          <t>no idea what the sim was actually about</t>
-        </is>
-      </c>
-      <c r="BC85" t="inlineStr">
-        <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BD85" s="2">
-        <v>45141</v>
-      </c>
-      <c r="BE85" t="inlineStr">
+      <c r="BA85" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -11792,40 +11584,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU86" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV86" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/qvryj/?view_only=</t>
         </is>
       </c>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>https://osf.io/qvryj/?view_only=</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ86" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC86" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD86" s="2">
-        <v>45141</v>
-      </c>
-      <c r="BE86" t="inlineStr">
+      <c r="BA86" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -11865,7 +11654,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX87" t="inlineStr">
+      <c r="AW87" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -11905,7 +11694,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX88" t="inlineStr">
+      <c r="AW88" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -12112,43 +11901,30 @@
       </c>
       <c r="AU89" t="inlineStr">
         <is>
-          <t>"the modified parallel analysis and factor score reliabilities were calculated using author-written functions in R. Code for these functions is available upon request."</t>
-        </is>
-      </c>
-      <c r="AV89" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ89" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB89" t="inlineStr">
-        <is>
-          <t>super weird, one paragraph of the whole paper contains information about the simulation, suppplemental material does not exist. unsure about my rating. User-written software is mentioned, unclear if used in the simulation</t>
-        </is>
-      </c>
-      <c r="BC89" t="inlineStr">
-        <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BD89" s="2">
-        <v>45083</v>
-      </c>
-      <c r="BE89" t="inlineStr">
+      <c r="BA89" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -12188,7 +11964,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX90" t="inlineStr">
+      <c r="AW90" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -12413,45 +12189,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV91" t="inlineStr">
+      <c r="AU91" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW91" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ91" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA91" t="inlineStr">
-        <is>
-          <t>only software name, no version</t>
-        </is>
-      </c>
-      <c r="BB91" t="inlineStr">
-        <is>
-          <t>uncertainty only provided for one of the many measures. Unsure if the estimand here are the individual parts of the factor model or the respective fit indices</t>
-        </is>
-      </c>
-      <c r="BC91" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD91" s="2">
-        <v>45083</v>
-      </c>
-      <c r="BE91" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -12491,7 +12254,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX92" t="inlineStr">
+      <c r="AW92" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -12711,40 +12474,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV93" t="inlineStr">
+      <c r="AU93" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW93" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ93" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB93" t="inlineStr">
-        <is>
-          <t>unclear to me if the first simulation study of the paper is supposed to be a simulation study or just an example of simulation-based power analysis; kept very brief</t>
-        </is>
-      </c>
-      <c r="BC93" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD93" s="2">
-        <v>45083</v>
-      </c>
-      <c r="BE93" t="inlineStr">
+      <c r="BA93" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -12959,14 +12714,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV94" t="inlineStr">
+      <c r="AU94" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW94" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr">
@@ -12976,23 +12736,10 @@
       </c>
       <c r="AZ94" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB94" t="inlineStr">
-        <is>
-          <t>figures look like screenshots from an excel spreadsheet</t>
-        </is>
-      </c>
-      <c r="BC94" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD94" s="2">
-        <v>45084</v>
-      </c>
-      <c r="BE94" t="inlineStr">
+      <c r="BA94" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -13214,17 +12961,17 @@
       </c>
       <c r="AU95" t="inlineStr">
         <is>
-          <t>"All the estimation routines described in this paper and employed for the simulations and empirical example were coded in R by the first author."</t>
-        </is>
-      </c>
-      <c r="AV95" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW95" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr">
@@ -13234,23 +12981,10 @@
       </c>
       <c r="AZ95" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB95" t="inlineStr">
-        <is>
-          <t>they call it two simulations, but later state that these are the two "main simulation conditions". I've coded it as one sim.</t>
-        </is>
-      </c>
-      <c r="BC95" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD95" s="2">
-        <v>45084</v>
-      </c>
-      <c r="BE95" t="inlineStr">
+      <c r="BA95" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -13467,43 +13201,30 @@
       </c>
       <c r="AU96" t="inlineStr">
         <is>
-          <t>they merely implemented it in mgcv</t>
-        </is>
-      </c>
-      <c r="AV96" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW96" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ96" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA96" t="inlineStr">
-        <is>
-          <t>they provide extensive code for model fitting, which also includes a seed somewhere. But they do not provide the code for their simulation</t>
-        </is>
-      </c>
-      <c r="BC96" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD96" s="2">
-        <v>45090</v>
-      </c>
-      <c r="BE96" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -13720,48 +13441,35 @@
       </c>
       <c r="AU97" t="inlineStr">
         <is>
-          <t>"The R code and data used in this paper are available in GitHub at https:// github.com/jtm508/bayestraj. Vignettes are also provided to help users adapt the code to applications of their own interest."</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/jtm508/bayestraj</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>https://github.com/jtm508/bayestraj</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ97" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB97" t="inlineStr">
-        <is>
-          <t>not sure if this should be included. More of a demonstration than a full simulation</t>
-        </is>
-      </c>
-      <c r="BC97" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD97" s="2">
-        <v>45090</v>
-      </c>
-      <c r="BE97" t="inlineStr">
+      <c r="BA97" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -13983,38 +13691,30 @@
       </c>
       <c r="AU98" t="inlineStr">
         <is>
-          <t>"The download link and a brief description of an R package for our latent mixture-based method is available in the online supplemental materials."</t>
-        </is>
-      </c>
-      <c r="AV98" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ98" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC98" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD98" s="2">
-        <v>45090</v>
-      </c>
-      <c r="BE98" t="inlineStr">
+      <c r="BA98" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -14241,53 +13941,35 @@
       </c>
       <c r="AU99" t="inlineStr">
         <is>
-          <t>wrote their own MCMC sampler</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV99" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/MbCN-lab/LassoFANDDM</t>
         </is>
       </c>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>https://github.com/MbCN-lab/LassoFANDDM</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ99" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA99" t="inlineStr">
-        <is>
-          <t>seed is not in the simulation script, but in the "main" script. Still counted it as yes</t>
-        </is>
-      </c>
-      <c r="BB99" t="inlineStr">
-        <is>
-          <t>not sure if this should be included. More of a demonstration than a full simulation</t>
-        </is>
-      </c>
-      <c r="BC99" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD99" s="2">
-        <v>45103</v>
-      </c>
-      <c r="BE99" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -14327,7 +14009,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX100" t="inlineStr">
+      <c r="AW100" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -14367,7 +14049,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX101" t="inlineStr">
+      <c r="AW101" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -14407,7 +14089,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX102" t="inlineStr">
+      <c r="AW102" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -14447,7 +14129,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX103" t="inlineStr">
+      <c r="AW103" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -14669,48 +14351,35 @@
       </c>
       <c r="AU104" t="inlineStr">
         <is>
-          <t>JAGS model</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV104" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/5vnxc/</t>
         </is>
       </c>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>https://osf.io/5vnxc/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ104" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA104" t="inlineStr">
-        <is>
-          <t>seed provided in a different part of the scripts, but still coded as "yes"</t>
-        </is>
-      </c>
-      <c r="BC104" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD104" s="2">
-        <v>45101</v>
-      </c>
-      <c r="BE104" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -14750,7 +14419,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX105" t="inlineStr">
+      <c r="AW105" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -14965,45 +14634,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU106" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV106" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/wwloh/disentangle-multiple-mediators</t>
         </is>
       </c>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>https://github.com/wwloh/disentangle-multiple-mediators</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ106" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB106" t="inlineStr">
-        <is>
-          <t>the simulation coded here merely dealt as illustration that a certain model specification can recover unbiased estimates on average</t>
-        </is>
-      </c>
-      <c r="BC106" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD106" s="2">
-        <v>45101</v>
-      </c>
-      <c r="BE106" t="inlineStr">
+      <c r="BA106" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -15220,17 +14881,17 @@
       </c>
       <c r="AU107" t="inlineStr">
         <is>
-          <t>We have also developed an R package that implements the proposed method (https://cran.r-project.org/web/packages/mediationsens/index.html).</t>
-        </is>
-      </c>
-      <c r="AV107" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr">
@@ -15240,23 +14901,10 @@
       </c>
       <c r="AZ107" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB107" t="inlineStr">
-        <is>
-          <t>this was the most unneccessarily complex description of a simulation study so far. Different subscenarios within different scenarios</t>
-        </is>
-      </c>
-      <c r="BC107" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD107" s="2">
-        <v>45103</v>
-      </c>
-      <c r="BE107" t="inlineStr">
+      <c r="BA107" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -15473,43 +15121,30 @@
       </c>
       <c r="AU108" t="inlineStr">
         <is>
-          <t>development of a web app which makes it easier for applied researchers to implement the proposed summary-statistics-based power analysis (https://koumurayama.shinyapps.io/summary_statistics _based_power/)</t>
-        </is>
-      </c>
-      <c r="AV108" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW108" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ108" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA108" t="inlineStr">
-        <is>
-          <t>computational environment not really specified, but could use their shiny app to reproduce the results</t>
-        </is>
-      </c>
-      <c r="BC108" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD108" s="2">
-        <v>45103</v>
-      </c>
-      <c r="BE108" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -15549,7 +15184,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX109" t="inlineStr">
+      <c r="AW109" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15589,14 +15224,9 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX110" t="inlineStr">
+      <c r="AW110" t="inlineStr">
         <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="BB110" t="inlineStr">
-        <is>
-          <t>they use simulation, but for illustration</t>
         </is>
       </c>
     </row>
@@ -15816,48 +15446,35 @@
       </c>
       <c r="AU111" t="inlineStr">
         <is>
-          <t>Ox Code</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV111" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://supp.apa.org/psycarticles/supplemental/met0000412/met0000412_simulation_general_coefficient_for_revision_1.ox</t>
         </is>
       </c>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>https://supp.apa.org/psycarticles/supplemental/met0000412/met0000412_simulation_general_coefficient_for_revision_1.ox</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ111" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA111" t="inlineStr">
-        <is>
-          <t>hard to read the Ox code, but I see no seed there. Not sure if "minimal" is correct for this</t>
-        </is>
-      </c>
-      <c r="BC111" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD111" s="2">
-        <v>45103</v>
-      </c>
-      <c r="BE111" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -15897,14 +15514,9 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX112" t="inlineStr">
+      <c r="AW112" t="inlineStr">
         <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="BB112" t="inlineStr">
-        <is>
-          <t>they use simulation, but for illustration</t>
         </is>
       </c>
     </row>
@@ -15942,7 +15554,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX113" t="inlineStr">
+      <c r="AW113" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -15982,14 +15594,9 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX114" t="inlineStr">
+      <c r="AW114" t="inlineStr">
         <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="BB114" t="inlineStr">
-        <is>
-          <t>very unsure if this really is a "sim" study, as it tests a software in different browsers on simulated response times</t>
         </is>
       </c>
     </row>
@@ -16204,48 +15811,30 @@
       </c>
       <c r="AU115" t="inlineStr">
         <is>
-          <t>In order to estimate the 2moME model with single-level data, we “trick” the software by including a cluster variable that has only one individual in each cluster.</t>
-        </is>
-      </c>
-      <c r="AV115" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW115" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ115" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA115" t="inlineStr">
-        <is>
-          <t>contains Mplus version, but not R version</t>
-        </is>
-      </c>
-      <c r="BB115" t="inlineStr">
-        <is>
-          <t>rather clear in stating goals &amp; performance measures of sim study. Not sure if this small Mplus trick is enough to count as "userwritten"</t>
-        </is>
-      </c>
-      <c r="BC115" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD115" s="2">
-        <v>45103</v>
-      </c>
-      <c r="BE115" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -16285,7 +15874,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX116" t="inlineStr">
+      <c r="AW116" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16325,7 +15914,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX117" t="inlineStr">
+      <c r="AW117" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16365,7 +15954,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX118" t="inlineStr">
+      <c r="AW118" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16405,7 +15994,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX119" t="inlineStr">
+      <c r="AW119" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16445,7 +16034,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX120" t="inlineStr">
+      <c r="AW120" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16485,7 +16074,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX121" t="inlineStr">
+      <c r="AW121" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16525,7 +16114,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX122" t="inlineStr">
+      <c r="AW122" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16565,7 +16154,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX123" t="inlineStr">
+      <c r="AW123" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16605,7 +16194,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX124" t="inlineStr">
+      <c r="AW124" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16645,7 +16234,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX125" t="inlineStr">
+      <c r="AW125" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16685,7 +16274,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX126" t="inlineStr">
+      <c r="AW126" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16725,7 +16314,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX127" t="inlineStr">
+      <c r="AW127" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -16945,50 +16534,37 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="AU128" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV128" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/qvryj/</t>
         </is>
       </c>
       <c r="AW128" t="inlineStr">
         <is>
-          <t>https://osf.io/qvryj/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX128" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY128" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ128" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA128" t="inlineStr">
-        <is>
-          <t>not sure if seed found in the code was also used for the simulation, but the same seed was used multiple times, so that's probably used. R version given, other package versions not given</t>
-        </is>
-      </c>
-      <c r="BB128" t="inlineStr">
-        <is>
-          <t>not sure if this should count as simulation study for our purposes. They demonstrate an issue rather than investigate performance</t>
-        </is>
-      </c>
-      <c r="BC128" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD128" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE128" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -17028,7 +16604,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX129" t="inlineStr">
+      <c r="AW129" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17068,7 +16644,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX130" t="inlineStr">
+      <c r="AW130" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17108,7 +16684,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX131" t="inlineStr">
+      <c r="AW131" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17148,7 +16724,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX132" t="inlineStr">
+      <c r="AW132" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17188,7 +16764,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX133" t="inlineStr">
+      <c r="AW133" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17228,7 +16804,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX134" t="inlineStr">
+      <c r="AW134" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17268,7 +16844,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX135" t="inlineStr">
+      <c r="AW135" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17485,48 +17061,35 @@
       </c>
       <c r="AU136" t="inlineStr">
         <is>
-          <t>used standard SAS module</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV136" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://scholarworks.iupui.edu/handle/1805/24059</t>
         </is>
       </c>
       <c r="AW136" t="inlineStr">
         <is>
-          <t>https://scholarworks.iupui.edu/handle/1805/24059</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX136" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY136" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ136" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA136" t="inlineStr">
-        <is>
-          <t>code is on university homepage, not sure how long this will be accessible</t>
-        </is>
-      </c>
-      <c r="BC136" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD136" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE136" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -17566,7 +17129,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX137" t="inlineStr">
+      <c r="AW137" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17606,7 +17169,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX138" t="inlineStr">
+      <c r="AW138" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17646,7 +17209,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX139" t="inlineStr">
+      <c r="AW139" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17686,7 +17249,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX140" t="inlineStr">
+      <c r="AW140" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -17898,48 +17461,35 @@
       </c>
       <c r="AU141" t="inlineStr">
         <is>
-          <t>they use their own JAGS code - is this user written?</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV141" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>printed in the paper</t>
         </is>
       </c>
       <c r="AW141" t="inlineStr">
         <is>
-          <t>printed in the paper</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX141" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY141" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ141" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB141" t="inlineStr">
-        <is>
-          <t>unsure if this should be called a simulation study, they call it "parameter recovery study"</t>
-        </is>
-      </c>
-      <c r="BC141" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD141" s="2">
-        <v>45100</v>
-      </c>
-      <c r="BE141" t="inlineStr">
+      <c r="BA141" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -17979,7 +17529,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX142" t="inlineStr">
+      <c r="AW142" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18196,53 +17746,35 @@
       </c>
       <c r="AU143" t="inlineStr">
         <is>
-          <t>In this section, we provide a comprehensive overview of how to use mixtur, providing code examples for each step. mixtur is written in R (Version 4.0.2, R Core Team, 2020)4, a free statistical programming language. To download R, visit https://www.r-project.org/.</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV143" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/je2y6</t>
         </is>
       </c>
       <c r="AW143" t="inlineStr">
         <is>
-          <t>https://osf.io/je2y6</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX143" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY143" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ143" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA143" t="inlineStr">
-        <is>
-          <t>packages with versions</t>
-        </is>
-      </c>
-      <c r="BB143" t="inlineStr">
-        <is>
-          <t>split into 5 brief simulations. This seems like a positive example for reproducibility</t>
-        </is>
-      </c>
-      <c r="BC143" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD143" s="2">
-        <v>45100</v>
-      </c>
-      <c r="BE143" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -18282,7 +17814,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX144" t="inlineStr">
+      <c r="AW144" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18492,50 +18024,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU145" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV145" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/3nj64</t>
         </is>
       </c>
       <c r="AW145" t="inlineStr">
         <is>
-          <t>https://osf.io/3nj64</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX145" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY145" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ145" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA145" t="inlineStr">
-        <is>
-          <t>seed is set to iteration in for loop</t>
-        </is>
-      </c>
-      <c r="BB145" t="inlineStr">
-        <is>
-          <t>simulation results on OSF, nice extensive supplement</t>
-        </is>
-      </c>
-      <c r="BC145" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD145" s="2">
-        <v>45101</v>
-      </c>
-      <c r="BE145" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -18575,7 +18094,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX146" t="inlineStr">
+      <c r="AW146" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18615,14 +18134,9 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX147" t="inlineStr">
+      <c r="AW147" t="inlineStr">
         <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="BB147" t="inlineStr">
-        <is>
-          <t>simulated some data, but just for illustration purposes</t>
         </is>
       </c>
     </row>
@@ -18660,7 +18174,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX148" t="inlineStr">
+      <c r="AW148" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18700,14 +18214,9 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX149" t="inlineStr">
+      <c r="AW149" t="inlineStr">
         <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="BB149" t="inlineStr">
-        <is>
-          <t>simulated some data, but just for illustration purposes</t>
         </is>
       </c>
     </row>
@@ -18745,7 +18254,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX150" t="inlineStr">
+      <c r="AW150" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18785,7 +18294,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX151" t="inlineStr">
+      <c r="AW151" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18825,7 +18334,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX152" t="inlineStr">
+      <c r="AW152" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18865,7 +18374,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX153" t="inlineStr">
+      <c r="AW153" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18905,7 +18414,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX154" t="inlineStr">
+      <c r="AW154" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -18945,7 +18454,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX155" t="inlineStr">
+      <c r="AW155" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19155,45 +18664,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV156" t="inlineStr">
+      <c r="AU156" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW156" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX156" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY156" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ156" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA156" t="inlineStr">
-        <is>
-          <t>code for analyses available, but not for simulation</t>
-        </is>
-      </c>
-      <c r="BB156" t="inlineStr">
-        <is>
-          <t>extensive supplement</t>
-        </is>
-      </c>
-      <c r="BC156" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD156" s="2">
-        <v>45101</v>
-      </c>
-      <c r="BE156" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -19233,14 +18729,9 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX157" t="inlineStr">
+      <c r="AW157" t="inlineStr">
         <is>
           <t>not found</t>
-        </is>
-      </c>
-      <c r="BB157" t="inlineStr">
-        <is>
-          <t>they used monte carlo simulation to generate a null distribution, not to investigate a method</t>
         </is>
       </c>
     </row>
@@ -19278,7 +18769,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX158" t="inlineStr">
+      <c r="AW158" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19318,7 +18809,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX159" t="inlineStr">
+      <c r="AW159" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19358,7 +18849,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX160" t="inlineStr">
+      <c r="AW160" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19398,7 +18889,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX161" t="inlineStr">
+      <c r="AW161" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19438,7 +18929,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX162" t="inlineStr">
+      <c r="AW162" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19478,7 +18969,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX163" t="inlineStr">
+      <c r="AW163" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19518,7 +19009,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX164" t="inlineStr">
+      <c r="AW164" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19558,7 +19049,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX165" t="inlineStr">
+      <c r="AW165" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19598,7 +19089,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX166" t="inlineStr">
+      <c r="AW166" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19638,7 +19129,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX167" t="inlineStr">
+      <c r="AW167" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19678,7 +19169,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX168" t="inlineStr">
+      <c r="AW168" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -19900,53 +19391,35 @@
       </c>
       <c r="AU169" t="inlineStr">
         <is>
-          <t>"our method, implemented in C++ as a DOS application"</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV169" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://zenodo.org/record/4897128</t>
         </is>
       </c>
       <c r="AW169" t="inlineStr">
         <is>
-          <t>https://zenodo.org/record/4897128</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX169" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY169" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ169" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>poor</t>
         </is>
       </c>
       <c r="BA169" t="inlineStr">
-        <is>
-          <t>not sure how to check the code here, really large repo. May not contain the code for the simulations, not sure. They use their own software, which is why I put "partially"</t>
-        </is>
-      </c>
-      <c r="BB169" t="inlineStr">
-        <is>
-          <t>unsure if we should include this, they simulate data to show that their algorithm has good synchronization errors</t>
-        </is>
-      </c>
-      <c r="BC169" t="inlineStr">
-        <is>
-          <t>poor</t>
-        </is>
-      </c>
-      <c r="BD169" s="2">
-        <v>45101</v>
-      </c>
-      <c r="BE169" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -20166,14 +19639,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV170" t="inlineStr">
+      <c r="AU170" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW170" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX170" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY170" t="inlineStr">
@@ -20183,18 +19661,10 @@
       </c>
       <c r="AZ170" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC170" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD170" s="2">
-        <v>45101</v>
-      </c>
-      <c r="BE170" t="inlineStr">
+      <c r="BA170" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -20234,7 +19704,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX171" t="inlineStr">
+      <c r="AW171" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -20274,7 +19744,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX172" t="inlineStr">
+      <c r="AW172" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -20314,7 +19784,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX173" t="inlineStr">
+      <c r="AW173" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
@@ -20531,17 +20001,17 @@
       </c>
       <c r="AU174" t="inlineStr">
         <is>
-          <t>"A code programmed in software R (R Core Team, 2019) can be available from the authors upon request."</t>
-        </is>
-      </c>
-      <c r="AV174" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW174" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX174" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY174" t="inlineStr">
@@ -20551,23 +20021,10 @@
       </c>
       <c r="AZ174" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB174" t="inlineStr">
-        <is>
-          <t>apparently, these are somehow two simulation studies, with the prior of the latter being based on the first one. Is not very clear to me, and reporting is a bit unstructured</t>
-        </is>
-      </c>
-      <c r="BC174" t="inlineStr">
-        <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BD174" s="2">
-        <v>45091</v>
-      </c>
-      <c r="BE174" t="inlineStr">
+      <c r="BA174" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -20794,53 +20251,35 @@
       </c>
       <c r="AU175" t="inlineStr">
         <is>
-          <t>they use their own Mplus Syntax</t>
+          <t>not accessible</t>
         </is>
       </c>
       <c r="AV175" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>printed in the paper</t>
         </is>
       </c>
       <c r="AW175" t="inlineStr">
         <is>
-          <t>printed in the paper</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX175" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY175" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ175" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA175" t="inlineStr">
-        <is>
-          <t>unsure how much would be needed to report for SAS, they provide SAS version - maybe this covers all relevant versions? Same for Mplus. They provide code for model fitting, but not for simulation, which is why I put "not accessible"</t>
-        </is>
-      </c>
-      <c r="BB175" t="inlineStr">
-        <is>
-          <t>nice ANOVA logic in the results</t>
-        </is>
-      </c>
-      <c r="BC175" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD175" s="2">
-        <v>45091</v>
-      </c>
-      <c r="BE175" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -21060,45 +20499,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV176" t="inlineStr">
+      <c r="AU176" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW176" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX176" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY176" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ176" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA176" t="inlineStr">
-        <is>
-          <t>code for examples provided, but not for simulation</t>
-        </is>
-      </c>
-      <c r="BB176" t="inlineStr">
-        <is>
-          <t>50 pages of figures/tables in the supplement</t>
-        </is>
-      </c>
-      <c r="BC176" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD176" s="2">
-        <v>45090</v>
-      </c>
-      <c r="BE176" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -21318,45 +20744,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV177" t="inlineStr">
+      <c r="AU177" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW177" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX177" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY177" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ177" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA177" t="inlineStr">
-        <is>
-          <t>not sure what to put for "MATLAB 2017b". I guess it's enough to reproduce everything?</t>
-        </is>
-      </c>
-      <c r="BB177" t="inlineStr">
-        <is>
-          <t>not sure where to count different chi square cutoffs, they don't count it as a condition. Includes ANOVA, so this kind of includes uncertainty (maybe)?. Includes SD of SE Bias, I interpret this as MC uncertainty measure in the same way as boxplots would be</t>
-        </is>
-      </c>
-      <c r="BC177" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD177" s="2">
-        <v>45092</v>
-      </c>
-      <c r="BE177" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -21578,43 +20991,30 @@
       </c>
       <c r="AU178" t="inlineStr">
         <is>
-          <t>"We attempt to bridge this gap for Bayesian reliability analysis by introducing an R-package that contains the proposed methodology."</t>
-        </is>
-      </c>
-      <c r="AV178" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW178" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX178" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY178" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ178" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA178" t="inlineStr">
-        <is>
-          <t>only code for empirical example with seed, no code for sim</t>
-        </is>
-      </c>
-      <c r="BC178" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD178" s="2">
-        <v>45092</v>
-      </c>
-      <c r="BE178" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -21839,45 +21239,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV179" t="inlineStr">
+      <c r="AU179" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW179" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX179" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY179" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ179" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA179" t="inlineStr">
-        <is>
-          <t>link to R code provided, but link is dead. The user has no public GitHub repos</t>
-        </is>
-      </c>
-      <c r="BB179" t="inlineStr">
-        <is>
-          <t>MC error in the form of standard deviations, CIs are also mentioned. Should have maybe just computed Ses</t>
-        </is>
-      </c>
-      <c r="BC179" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD179" s="2">
-        <v>45095</v>
-      </c>
-      <c r="BE179" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -22089,17 +21476,17 @@
       </c>
       <c r="AU180" t="inlineStr">
         <is>
-          <t>"The Stan code of the proposed model is available from the Open Science Framework website (https://osf.io/zvxd2/)."</t>
-        </is>
-      </c>
-      <c r="AV180" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW180" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX180" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY180" t="inlineStr">
@@ -22109,23 +21496,10 @@
       </c>
       <c r="AZ180" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA180" t="inlineStr">
-        <is>
-          <t>link to R and Stan code, but not for simulation</t>
-        </is>
-      </c>
-      <c r="BC180" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD180" s="2">
-        <v>45095</v>
-      </c>
-      <c r="BE180" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -22340,45 +21714,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV181" t="inlineStr">
+      <c r="AU181" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW181" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX181" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY181" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ181" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA181" t="inlineStr">
-        <is>
-          <t>they provide CPU and RAM information, but not OS</t>
-        </is>
-      </c>
-      <c r="BB181" t="inlineStr">
-        <is>
-          <t>uncertainty with boxplots and ANOVA thinking. Relatively good</t>
-        </is>
-      </c>
-      <c r="BC181" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD181" s="2">
-        <v>45095</v>
-      </c>
-      <c r="BE181" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -22605,43 +21966,30 @@
       </c>
       <c r="AU182" t="inlineStr">
         <is>
-          <t>"wrote a MATLAB code for the other approaches."</t>
-        </is>
-      </c>
-      <c r="AV182" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW182" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX182" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY182" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ182" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA182" t="inlineStr">
-        <is>
-          <t>"The MATLAB code is available from the first author upon request."</t>
-        </is>
-      </c>
-      <c r="BC182" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD182" s="2">
-        <v>45145</v>
-      </c>
-      <c r="BE182" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -22863,53 +22211,35 @@
       </c>
       <c r="AU183" t="inlineStr">
         <is>
-          <t>"we first ran analyses in the programs mentioned above and then reproduced results from both programs using our own functions included in a dedicated R package—EFAtools (Steiner &amp; Grieder, 2020). We then conducted all further analyses with our own functions that enable a flexible use of all combinations of settings needed for the simulation analyses and that are faster due to C++ implementations of the iterative procedures."</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV183" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/a836q/</t>
         </is>
       </c>
       <c r="AW183" t="inlineStr">
         <is>
-          <t>https://osf.io/a836q/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX183" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY183" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ183" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA183" t="inlineStr">
-        <is>
-          <t>state package, SPSS and R numbers. Rstanarm package version not stated, though</t>
-        </is>
-      </c>
-      <c r="BB183" t="inlineStr">
-        <is>
-          <t>coding documentation is nice. Interesting approach to detect differences between methods by using Bayesian Regression</t>
-        </is>
-      </c>
-      <c r="BC183" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD183" s="2">
-        <v>45109</v>
-      </c>
-      <c r="BE183" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -23131,53 +22461,35 @@
       </c>
       <c r="AU184" t="inlineStr">
         <is>
-          <t>"The detailed JAGS codes for the JVRTLCDM can be found in the supplementary material."</t>
+          <t>not accessible</t>
         </is>
       </c>
       <c r="AV184" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>dead link</t>
         </is>
       </c>
       <c r="AW184" t="inlineStr">
         <is>
-          <t>dead link</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX184" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY184" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ184" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA184" t="inlineStr">
-        <is>
-          <t>some code is supposed to be in supplemental material, which cannot be found. state package and R and JAGS versions</t>
-        </is>
-      </c>
-      <c r="BB184" t="inlineStr">
-        <is>
-          <t>could use the standard deviations in the RMSE table to calculate an MCSE; will likely show that there is much noise and little clear differences between the two models</t>
-        </is>
-      </c>
-      <c r="BC184" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD184" s="2">
-        <v>45109</v>
-      </c>
-      <c r="BE184" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -23397,14 +22709,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV185" t="inlineStr">
+      <c r="AU185" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW185" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX185" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY185" t="inlineStr">
@@ -23414,23 +22731,10 @@
       </c>
       <c r="AZ185" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA185" t="inlineStr">
-        <is>
-          <t>code only for models, not for simulation</t>
-        </is>
-      </c>
-      <c r="BC185" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD185" s="2">
-        <v>45109</v>
-      </c>
-      <c r="BE185" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -23647,43 +22951,30 @@
       </c>
       <c r="AU186" t="inlineStr">
         <is>
-          <t>"aiming to promote best practices in the assembly of pairwise FCQs, a user-friendly implementation of the presented GA has been made available at https:// psychometricmodelling.shinyapps.io/FCoptimization/"</t>
-        </is>
-      </c>
-      <c r="AV186" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW186" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX186" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY186" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="AZ186" t="inlineStr">
         <is>
-          <t>fully</t>
+          <t>poor</t>
         </is>
       </c>
       <c r="BA186" t="inlineStr">
-        <is>
-          <t>"R codes can be made available upon request to the corresponding author." lovely</t>
-        </is>
-      </c>
-      <c r="BC186" t="inlineStr">
-        <is>
-          <t>poor</t>
-        </is>
-      </c>
-      <c r="BD186" s="2">
-        <v>45110</v>
-      </c>
-      <c r="BE186" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -23903,40 +23194,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV187" t="inlineStr">
+      <c r="AU187" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW187" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX187" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY187" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ187" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA187" t="inlineStr">
-        <is>
-          <t>code only provided for numerical example</t>
-        </is>
-      </c>
-      <c r="BC187" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD187" s="2">
-        <v>45110</v>
-      </c>
-      <c r="BE187" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -24158,48 +23441,35 @@
       </c>
       <c r="AU188" t="inlineStr">
         <is>
-          <t>Mplus and OpenMx model, but the latter not necessary for simulation</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV188" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/h95vx/</t>
         </is>
       </c>
       <c r="AW188" t="inlineStr">
         <is>
-          <t>https://osf.io/h95vx/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX188" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY188" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ188" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA188" t="inlineStr">
-        <is>
-          <t>code for simulations only needs R and Mplus</t>
-        </is>
-      </c>
-      <c r="BC188" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD188" s="2">
-        <v>45110</v>
-      </c>
-      <c r="BE188" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -24239,13 +23509,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX189" t="inlineStr">
+      <c r="AW189" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD189" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="190">
@@ -24282,13 +23549,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX190" t="inlineStr">
+      <c r="AW190" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD190" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="191">
@@ -24325,13 +23589,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX191" t="inlineStr">
+      <c r="AW191" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD191" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="192">
@@ -24368,13 +23629,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX192" t="inlineStr">
+      <c r="AW192" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD192" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="193">
@@ -24583,48 +23841,35 @@
       </c>
       <c r="AU193" t="inlineStr">
         <is>
-          <t>"we reproduced both the R psych and SPSS implementations in the EFAtools package in R "</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV193" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/a836q and https://github.com/mdsteiner/efacomp_OSF</t>
         </is>
       </c>
       <c r="AW193" t="inlineStr">
         <is>
-          <t>https://osf.io/a836q and https://github.com/mdsteiner/efacomp_OSF</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX193" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY193" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ193" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA193" t="inlineStr">
-        <is>
-          <t>at first sight well organized code repository, however, I can't find information on OS + software versions. Surprisingly I can't find a set.seed command anywhere after looking through the files</t>
-        </is>
-      </c>
-      <c r="BC193" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD193" s="2">
-        <v>45078</v>
-      </c>
-      <c r="BE193" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -24664,13 +23909,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX194" t="inlineStr">
+      <c r="AW194" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD194" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="195">
@@ -24707,13 +23949,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX195" t="inlineStr">
+      <c r="AW195" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD195" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="196">
@@ -24750,13 +23989,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX196" t="inlineStr">
+      <c r="AW196" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD196" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="197">
@@ -24793,13 +24029,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX197" t="inlineStr">
+      <c r="AW197" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD197" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="198">
@@ -25003,48 +24236,35 @@
       </c>
       <c r="AU198" t="inlineStr">
         <is>
-          <t>both the program code and the tutorial can be freely downloaded from https://github.com/MirkoZanon/GeNEsIS</t>
+          <t>not accessible</t>
         </is>
       </c>
       <c r="AV198" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>https://github.com/MirkoZanon/GeNEsIS</t>
         </is>
       </c>
       <c r="AW198" t="inlineStr">
         <is>
-          <t>https://github.com/MirkoZanon/GeNEsIS</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX198" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY198" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AZ198" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="BA198" t="inlineStr">
-        <is>
-          <t>there is a folder "Comparison simulations with other softwares" but there is no code to reproduce the simulations, only data files. Versions for running the program are reported, but not for the simulation study.</t>
-        </is>
-      </c>
-      <c r="BC198" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="BD198" s="2">
-        <v>45078</v>
-      </c>
-      <c r="BE198" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -25084,13 +24304,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX199" t="inlineStr">
+      <c r="AW199" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD199" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="200">
@@ -25127,13 +24344,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX200" t="inlineStr">
+      <c r="AW200" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD200" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="201">
@@ -25170,13 +24384,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX201" t="inlineStr">
+      <c r="AW201" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD201" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="202">
@@ -25213,13 +24424,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX202" t="inlineStr">
+      <c r="AW202" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD202" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="203">
@@ -25256,13 +24464,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX203" t="inlineStr">
+      <c r="AW203" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD203" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="204">
@@ -25299,13 +24504,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX204" t="inlineStr">
+      <c r="AW204" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD204" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="205">
@@ -25342,13 +24544,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX205" t="inlineStr">
+      <c r="AW205" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD205" s="2">
-        <v>45078</v>
       </c>
     </row>
     <row r="206">
@@ -25557,48 +24756,35 @@
       </c>
       <c r="AU206" t="inlineStr">
         <is>
-          <t>Several of the algorithms are already implemented in the Python package Eyekit (https://jwcarr. github.io/eyekit/) and the R package popEye (https://github. com/sascha2schroeder/popEye),</t>
+          <t>accessible online</t>
         </is>
       </c>
       <c r="AV206" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/jwcarr/drift</t>
         </is>
       </c>
       <c r="AW206" t="inlineStr">
         <is>
-          <t>https://github.com/jwcarr/drift</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX206" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY206" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ206" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>great</t>
         </is>
       </c>
       <c r="BA206" t="inlineStr">
-        <is>
-          <t>There is a requirements.txt with all necessary software versions that can be used with python virtual environments</t>
-        </is>
-      </c>
-      <c r="BC206" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="BD206" s="2">
-        <v>45078</v>
-      </c>
-      <c r="BE206" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -25638,13 +24824,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX207" t="inlineStr">
+      <c r="AW207" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD207" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="208">
@@ -25681,13 +24864,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX208" t="inlineStr">
+      <c r="AW208" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD208" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="209">
@@ -25724,13 +24904,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX209" t="inlineStr">
+      <c r="AW209" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD209" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="210">
@@ -25767,13 +24944,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX210" t="inlineStr">
+      <c r="AW210" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD210" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="211">
@@ -25810,13 +24984,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX211" t="inlineStr">
+      <c r="AW211" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD211" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="212">
@@ -25853,13 +25024,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX212" t="inlineStr">
+      <c r="AW212" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD212" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="213">
@@ -25896,13 +25064,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX213" t="inlineStr">
+      <c r="AW213" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD213" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="214">
@@ -26119,40 +25284,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU214" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV214" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/y98sj/</t>
         </is>
       </c>
       <c r="AW214" t="inlineStr">
         <is>
-          <t>https://osf.io/y98sj/</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX214" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY214" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ214" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC214" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD214" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE214" t="inlineStr">
+      <c r="BA214" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -26192,13 +25354,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX215" t="inlineStr">
+      <c r="AW215" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD215" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="216">
@@ -26235,13 +25394,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX216" t="inlineStr">
+      <c r="AW216" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD216" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="217">
@@ -26278,13 +25434,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX217" t="inlineStr">
+      <c r="AW217" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD217" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="218">
@@ -26321,13 +25474,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX218" t="inlineStr">
+      <c r="AW218" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD218" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="219">
@@ -26364,13 +25514,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX219" t="inlineStr">
+      <c r="AW219" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD219" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="220">
@@ -26572,19 +25719,24 @@
           <t>unclear</t>
         </is>
       </c>
+      <c r="AU220" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV220" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>https://osf.io/zxmpf/</t>
         </is>
       </c>
       <c r="AW220" t="inlineStr">
         <is>
-          <t>https://osf.io/zxmpf/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX220" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY220" t="inlineStr">
@@ -26594,18 +25746,10 @@
       </c>
       <c r="AZ220" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC220" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD220" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE220" t="inlineStr">
+      <c r="BA220" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -26815,19 +25959,24 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU221" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV221" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/jmbh/NetworkGroupDifferences</t>
         </is>
       </c>
       <c r="AW221" t="inlineStr">
         <is>
-          <t>https://github.com/jmbh/NetworkGroupDifferences</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX221" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="AY221" t="inlineStr">
@@ -26837,18 +25986,10 @@
       </c>
       <c r="AZ221" t="inlineStr">
         <is>
-          <t>fully</t>
-        </is>
-      </c>
-      <c r="BC221" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD221" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE221" t="inlineStr">
+      <c r="BA221" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -27058,40 +26199,37 @@
           <t>unclear</t>
         </is>
       </c>
+      <c r="AU222" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV222" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>https://osf.io/hvkfn/</t>
         </is>
       </c>
       <c r="AW222" t="inlineStr">
         <is>
-          <t>https://osf.io/hvkfn/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX222" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY222" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AZ222" t="inlineStr">
         <is>
-          <t>partially</t>
-        </is>
-      </c>
-      <c r="BC222" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD222" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE222" t="inlineStr">
+      <c r="BA222" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -27301,14 +26439,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV223" t="inlineStr">
+      <c r="AU223" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW223" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX223" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY223" t="inlineStr">
@@ -27318,18 +26461,10 @@
       </c>
       <c r="AZ223" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC223" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD223" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE223" t="inlineStr">
+      <c r="BA223" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -27369,13 +26504,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX224" t="inlineStr">
+      <c r="AW224" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD224" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="225">
@@ -27412,13 +26544,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX225" t="inlineStr">
+      <c r="AW225" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD225" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="226">
@@ -27455,13 +26584,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX226" t="inlineStr">
+      <c r="AW226" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD226" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="227">
@@ -27498,13 +26624,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX227" t="inlineStr">
+      <c r="AW227" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD227" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="228">
@@ -27541,13 +26664,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX228" t="inlineStr">
+      <c r="AW228" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD228" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="229">
@@ -27584,13 +26704,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX229" t="inlineStr">
+      <c r="AW229" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD229" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="230">
@@ -27799,43 +26916,35 @@
       </c>
       <c r="AU230" t="inlineStr">
         <is>
-          <t>R code for the transformation and the significance tests under this condition are provided below</t>
+          <t>not accessible</t>
         </is>
       </c>
       <c r="AV230" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>https://osf.io/rtyg7/</t>
         </is>
       </c>
       <c r="AW230" t="inlineStr">
         <is>
-          <t>https://osf.io/rtyg7/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX230" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY230" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ230" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC230" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD230" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE230" t="inlineStr">
+      <c r="BA230" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -27875,13 +26984,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX231" t="inlineStr">
+      <c r="AW231" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD231" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="232">
@@ -27918,13 +27024,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX232" t="inlineStr">
+      <c r="AW232" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD232" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="233">
@@ -27961,13 +27064,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX233" t="inlineStr">
+      <c r="AW233" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD233" s="2">
-        <v>45096</v>
       </c>
     </row>
     <row r="234">
@@ -28169,19 +27269,24 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU234" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV234" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/p5v6y/?view_only=fcdffbd2335b419487b452907ce2c3d0</t>
         </is>
       </c>
       <c r="AW234" t="inlineStr">
         <is>
-          <t>https://osf.io/p5v6y/?view_only=fcdffbd2335b419487b452907ce2c3d0</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX234" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY234" t="inlineStr">
@@ -28191,18 +27296,10 @@
       </c>
       <c r="AZ234" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC234" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD234" s="2">
-        <v>45096</v>
-      </c>
-      <c r="BE234" t="inlineStr">
+      <c r="BA234" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -28242,13 +27339,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX235" t="inlineStr">
+      <c r="AW235" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD235" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="236">
@@ -28285,13 +27379,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX236" t="inlineStr">
+      <c r="AW236" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD236" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="237">
@@ -28328,13 +27419,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX237" t="inlineStr">
+      <c r="AW237" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD237" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="238">
@@ -28371,13 +27459,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX238" t="inlineStr">
+      <c r="AW238" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD238" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="239">
@@ -28414,13 +27499,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX239" t="inlineStr">
+      <c r="AW239" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD239" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="240">
@@ -28457,13 +27539,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX240" t="inlineStr">
+      <c r="AW240" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD240" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="241">
@@ -28500,13 +27579,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX241" t="inlineStr">
+      <c r="AW241" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD241" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="242">
@@ -28543,13 +27619,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX242" t="inlineStr">
+      <c r="AW242" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD242" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="243">
@@ -28586,13 +27659,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX243" t="inlineStr">
+      <c r="AW243" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD243" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="244">
@@ -28629,13 +27699,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX244" t="inlineStr">
+      <c r="AW244" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD244" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="245">
@@ -28847,19 +27914,24 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU245" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV245" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/qfxpr/</t>
         </is>
       </c>
       <c r="AW245" t="inlineStr">
         <is>
-          <t>https://osf.io/qfxpr/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX245" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY245" t="inlineStr">
@@ -28869,18 +27941,10 @@
       </c>
       <c r="AZ245" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC245" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD245" s="2">
-        <v>45098</v>
-      </c>
-      <c r="BE245" t="inlineStr">
+      <c r="BA245" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -28920,13 +27984,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX246" t="inlineStr">
+      <c r="AW246" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD246" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="247">
@@ -29145,17 +28206,17 @@
       </c>
       <c r="AU247" t="inlineStr">
         <is>
-          <t>"(The JAGS codes for HRM-SIC and HRM-LC are provided in Appendices 3 and 4 in the online supplement, respectively)"</t>
-        </is>
-      </c>
-      <c r="AV247" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW247" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX247" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY247" t="inlineStr">
@@ -29165,18 +28226,10 @@
       </c>
       <c r="AZ247" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC247" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD247" s="2">
-        <v>45098</v>
-      </c>
-      <c r="BE247" t="inlineStr">
+      <c r="BA247" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -29216,13 +28269,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX248" t="inlineStr">
+      <c r="AW248" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD248" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="249">
@@ -29259,13 +28309,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX249" t="inlineStr">
+      <c r="AW249" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD249" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="250">
@@ -29302,13 +28349,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX250" t="inlineStr">
+      <c r="AW250" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD250" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="251">
@@ -29345,13 +28389,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX251" t="inlineStr">
+      <c r="AW251" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD251" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="252">
@@ -29388,13 +28429,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX252" t="inlineStr">
+      <c r="AW252" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD252" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="253">
@@ -29431,13 +28469,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX253" t="inlineStr">
+      <c r="AW253" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD253" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="254">
@@ -29474,13 +28509,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX254" t="inlineStr">
+      <c r="AW254" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD254" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="255">
@@ -29517,13 +28549,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX255" t="inlineStr">
+      <c r="AW255" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD255" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="256">
@@ -29560,13 +28589,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX256" t="inlineStr">
+      <c r="AW256" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD256" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="257">
@@ -29603,13 +28629,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX257" t="inlineStr">
+      <c r="AW257" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD257" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="258">
@@ -29646,13 +28669,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX258" t="inlineStr">
+      <c r="AW258" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD258" s="2">
-        <v>45098</v>
       </c>
     </row>
     <row r="259">
@@ -29854,35 +28874,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV259" t="inlineStr">
+      <c r="AU259" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW259" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX259" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY259" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ259" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC259" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD259" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE259" t="inlineStr">
+      <c r="BA259" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -30092,40 +29109,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU260" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV260" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/LTrichtinger/Bootstrap_Test</t>
         </is>
       </c>
       <c r="AW260" t="inlineStr">
         <is>
-          <t>https://github.com/LTrichtinger/Bootstrap_Test</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AX260" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY260" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ260" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC260" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD260" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE260" t="inlineStr">
+      <c r="BA260" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -30330,40 +29344,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU261" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV261" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://doi.org/10.17605/OSF.IO/3FERB</t>
         </is>
       </c>
       <c r="AW261" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17605/OSF.IO/3FERB</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX261" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY261" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ261" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC261" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD261" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE261" t="inlineStr">
+      <c r="BA261" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -30573,35 +29584,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV262" t="inlineStr">
+      <c r="AU262" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW262" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX262" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY262" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ262" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC262" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD262" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE262" t="inlineStr">
+      <c r="BA262" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -30813,43 +29821,30 @@
       </c>
       <c r="AU263" t="inlineStr">
         <is>
-          <t>"A self-generated Bayesian sampler in R (R core Team, 2018) was used for par- ameter estimation  The R codefor the Bayesian sampler is included in the supple-mentary material https://doi.org/10.1080/00273171.2021.1932403"</t>
-        </is>
-      </c>
-      <c r="AV263" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW263" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX263" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY263" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ263" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB263" t="inlineStr">
-        <is>
-          <t>supplementary material not findable, similar to other MBRM articles</t>
-        </is>
-      </c>
-      <c r="BC263" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD263" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE263" t="inlineStr">
+      <c r="BA263" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -31061,38 +30056,30 @@
       </c>
       <c r="AU264" t="inlineStr">
         <is>
-          <t>"we provide rstan code for implementing the proposed method" https://github.com/sgolchi/PowerPriorMediation</t>
-        </is>
-      </c>
-      <c r="AV264" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW264" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX264" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY264" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ264" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC264" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD264" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE264" t="inlineStr">
+      <c r="BA264" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -31132,13 +30119,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX265" t="inlineStr">
+      <c r="AW265" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD265" s="2">
-        <v>45099</v>
       </c>
     </row>
     <row r="266">
@@ -31340,14 +30324,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV266" t="inlineStr">
+      <c r="AU266" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW266" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX266" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY266" t="inlineStr">
@@ -31357,18 +30346,10 @@
       </c>
       <c r="AZ266" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC266" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD266" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE266" t="inlineStr">
+      <c r="BA266" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -31408,13 +30389,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX267" t="inlineStr">
+      <c r="AW267" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD267" s="2">
-        <v>45099</v>
       </c>
     </row>
     <row r="268">
@@ -31616,14 +30594,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV268" t="inlineStr">
+      <c r="AU268" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW268" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX268" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY268" t="inlineStr">
@@ -31633,18 +30616,10 @@
       </c>
       <c r="AZ268" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC268" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD268" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE268" t="inlineStr">
+      <c r="BA268" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -31684,13 +30659,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX269" t="inlineStr">
+      <c r="AW269" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD269" s="2">
-        <v>45099</v>
       </c>
     </row>
     <row r="270">
@@ -31727,13 +30699,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX270" t="inlineStr">
+      <c r="AW270" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD270" s="2">
-        <v>45099</v>
       </c>
     </row>
     <row r="271">
@@ -31942,38 +30911,30 @@
       </c>
       <c r="AU271" t="inlineStr">
         <is>
-          <t>"e provide OpenMx code and Mplus 8 syntax in the first author website (https://github.com/ Veronica0206/Extension_projects) to demonstrate how to trans- form the estimated mean vector and variance-covariance structure of reparameterized growth factors to those in the original setting"</t>
-        </is>
-      </c>
-      <c r="AV271" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW271" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX271" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY271" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ271" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC271" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD271" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE271" t="inlineStr">
+      <c r="BA271" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -32178,40 +31139,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU272" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV272" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/wwloh/social-influence-interference</t>
         </is>
       </c>
       <c r="AW272" t="inlineStr">
         <is>
-          <t>https://github.com/wwloh/social-influence-interference</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX272" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY272" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ272" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC272" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD272" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE272" t="inlineStr">
+      <c r="BA272" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -32416,40 +31374,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU273" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV273" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://supp.apa.org/psycarticles/supplemental/met0000295/met0000295_supp.html</t>
         </is>
       </c>
       <c r="AW273" t="inlineStr">
         <is>
-          <t>https://supp.apa.org/psycarticles/supplemental/met0000295/met0000295_supp.html</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX273" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY273" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ273" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC273" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD273" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE273" t="inlineStr">
+      <c r="BA273" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -32489,13 +31444,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX274" t="inlineStr">
+      <c r="AW274" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD274" s="2">
-        <v>45099</v>
       </c>
     </row>
     <row r="275">
@@ -32699,38 +31651,30 @@
       </c>
       <c r="AU275" t="inlineStr">
         <is>
-          <t>"With this article come R functions that can be used to apply the approach prosed in combination with the R package bain (https://informative-hypotheses.sites.uu.nl/software/bain/)"</t>
-        </is>
-      </c>
-      <c r="AV275" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW275" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX275" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY275" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ275" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC275" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD275" s="2">
-        <v>45099</v>
-      </c>
-      <c r="BE275" t="inlineStr">
+      <c r="BA275" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -32937,17 +31881,17 @@
       </c>
       <c r="AU276" t="inlineStr">
         <is>
-          <t>"See Appendix E in the online supplementary materials for a synthetic data set for use in trying out R code for the WCLS estimator."</t>
-        </is>
-      </c>
-      <c r="AV276" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW276" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX276" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY276" t="inlineStr">
@@ -32957,18 +31901,10 @@
       </c>
       <c r="AZ276" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC276" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD276" s="2">
-        <v>45103</v>
-      </c>
-      <c r="BE276" t="inlineStr">
+      <c r="BA276" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -33180,43 +32116,35 @@
       </c>
       <c r="AU277" t="inlineStr">
         <is>
-          <t>"To facilitate this shift, we have implemented the nonregularized approach for predictability in R package GGMnonreg"</t>
+          <t>not accessible</t>
         </is>
       </c>
       <c r="AV277" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>https://osf.io/fm92b/</t>
         </is>
       </c>
       <c r="AW277" t="inlineStr">
         <is>
-          <t>https://osf.io/fm92b/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX277" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY277" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ277" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC277" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD277" s="2">
-        <v>45103</v>
-      </c>
-      <c r="BE277" t="inlineStr">
+      <c r="BA277" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -33256,13 +32184,10 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AX278" t="inlineStr">
+      <c r="AW278" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD278" s="2">
-        <v>45104</v>
       </c>
     </row>
     <row r="279">
@@ -33299,13 +32224,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX279" t="inlineStr">
+      <c r="AW279" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD279" s="2">
-        <v>45104</v>
       </c>
     </row>
     <row r="280">
@@ -33342,13 +32264,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX280" t="inlineStr">
+      <c r="AW280" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD280" s="2">
-        <v>45104</v>
       </c>
     </row>
     <row r="281">
@@ -33550,40 +32469,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU281" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV281" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/ghw37/</t>
         </is>
       </c>
       <c r="AW281" t="inlineStr">
         <is>
-          <t>https://osf.io/ghw37/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX281" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY281" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ281" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC281" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD281" s="2">
-        <v>45104</v>
-      </c>
-      <c r="BE281" t="inlineStr">
+      <c r="BA281" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -33623,13 +32539,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX282" t="inlineStr">
+      <c r="AW282" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD282" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="283">
@@ -33831,14 +32744,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV283" t="inlineStr">
+      <c r="AU283" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW283" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX283" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY283" t="inlineStr">
@@ -33848,18 +32766,10 @@
       </c>
       <c r="AZ283" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC283" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD283" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE283" t="inlineStr">
+      <c r="BA283" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -33899,13 +32809,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX284" t="inlineStr">
+      <c r="AW284" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD284" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="285">
@@ -33942,13 +32849,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX285" t="inlineStr">
+      <c r="AW285" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD285" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="286">
@@ -33985,13 +32889,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX286" t="inlineStr">
+      <c r="AW286" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD286" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="287">
@@ -34028,13 +32929,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX287" t="inlineStr">
+      <c r="AW287" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD287" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="288">
@@ -34071,13 +32969,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX288" t="inlineStr">
+      <c r="AW288" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD288" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="289">
@@ -34114,13 +33009,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX289" t="inlineStr">
+      <c r="AW289" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD289" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="290">
@@ -34322,35 +33214,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV290" t="inlineStr">
+      <c r="AU290" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW290" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX290" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY290" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ290" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC290" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD290" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE290" t="inlineStr">
+      <c r="BA290" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -34390,13 +33279,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX291" t="inlineStr">
+      <c r="AW291" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD291" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="292">
@@ -34433,13 +33319,10 @@
           <t>unclear</t>
         </is>
       </c>
-      <c r="AX292" t="inlineStr">
+      <c r="AW292" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD292" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="293">
@@ -34643,38 +33526,30 @@
       </c>
       <c r="AU293" t="inlineStr">
         <is>
-          <t>"To help researchers more easily use the proposed approach, we developed an R Shiny application, which can be accessed at https://qmliu.shinyapps.io/DACFE/. Our proposed method is implemented in our R package `DACF`."</t>
-        </is>
-      </c>
-      <c r="AV293" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW293" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX293" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY293" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ293" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC293" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD293" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE293" t="inlineStr">
+      <c r="BA293" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -34714,13 +33589,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX294" t="inlineStr">
+      <c r="AW294" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD294" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="295">
@@ -34757,13 +33629,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX295" t="inlineStr">
+      <c r="AW295" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD295" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="296">
@@ -34800,13 +33669,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX296" t="inlineStr">
+      <c r="AW296" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD296" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="297">
@@ -34843,13 +33709,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX297" t="inlineStr">
+      <c r="AW297" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD297" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="298">
@@ -34886,13 +33749,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX298" t="inlineStr">
+      <c r="AW298" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD298" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="299">
@@ -34929,13 +33789,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX299" t="inlineStr">
+      <c r="AW299" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD299" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="300">
@@ -34972,13 +33829,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX300" t="inlineStr">
+      <c r="AW300" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD300" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="301">
@@ -35015,13 +33869,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX301" t="inlineStr">
+      <c r="AW301" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD301" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="302">
@@ -35058,13 +33909,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX302" t="inlineStr">
+      <c r="AW302" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD302" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="303">
@@ -35101,13 +33949,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX303" t="inlineStr">
+      <c r="AW303" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD303" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="304">
@@ -35144,13 +33989,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX304" t="inlineStr">
+      <c r="AW304" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD304" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="305">
@@ -35187,13 +34029,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX305" t="inlineStr">
+      <c r="AW305" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD305" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="306">
@@ -35230,13 +34069,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX306" t="inlineStr">
+      <c r="AW306" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD306" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="307">
@@ -35273,13 +34109,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX307" t="inlineStr">
+      <c r="AW307" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD307" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="308">
@@ -35316,13 +34149,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX308" t="inlineStr">
+      <c r="AW308" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD308" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="309">
@@ -35359,13 +34189,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX309" t="inlineStr">
+      <c r="AW309" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD309" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="310">
@@ -35567,19 +34394,24 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU310" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV310" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://github.com/AI-Behaviormetrics/MfrmLinking</t>
         </is>
       </c>
       <c r="AW310" t="inlineStr">
         <is>
-          <t>https://github.com/AI-Behaviormetrics/MfrmLinking</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX310" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY310" t="inlineStr">
@@ -35589,18 +34421,10 @@
       </c>
       <c r="AZ310" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC310" t="inlineStr">
-        <is>
           <t>poor</t>
         </is>
       </c>
-      <c r="BD310" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE310" t="inlineStr">
+      <c r="BA310" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -35640,13 +34464,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX311" t="inlineStr">
+      <c r="AW311" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD311" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="312">
@@ -35683,13 +34504,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX312" t="inlineStr">
+      <c r="AW312" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD312" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="313">
@@ -35726,13 +34544,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX313" t="inlineStr">
+      <c r="AW313" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD313" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="314">
@@ -35769,13 +34584,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX314" t="inlineStr">
+      <c r="AW314" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD314" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="315">
@@ -35812,13 +34624,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX315" t="inlineStr">
+      <c r="AW315" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD315" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="316">
@@ -35855,13 +34664,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX316" t="inlineStr">
+      <c r="AW316" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD316" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="317">
@@ -35898,13 +34704,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX317" t="inlineStr">
+      <c r="AW317" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD317" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="318">
@@ -35941,13 +34744,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX318" t="inlineStr">
+      <c r="AW318" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD318" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="319">
@@ -36154,40 +34954,37 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU319" t="inlineStr">
+        <is>
+          <t>accessible online</t>
+        </is>
+      </c>
       <c r="AV319" t="inlineStr">
         <is>
-          <t>accessible online</t>
+          <t>https://osf.io/wpcqx/</t>
         </is>
       </c>
       <c r="AW319" t="inlineStr">
         <is>
-          <t>https://osf.io/wpcqx/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX319" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY319" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ319" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC319" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD319" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE319" t="inlineStr">
+      <c r="BA319" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -36227,13 +35024,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX320" t="inlineStr">
+      <c r="AW320" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD320" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="321">
@@ -36270,13 +35064,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX321" t="inlineStr">
+      <c r="AW321" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD321" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="322">
@@ -36313,13 +35104,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX322" t="inlineStr">
+      <c r="AW322" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD322" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="323">
@@ -36526,14 +35314,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV323" t="inlineStr">
+      <c r="AU323" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW323" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX323" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY323" t="inlineStr">
@@ -36543,18 +35336,10 @@
       </c>
       <c r="AZ323" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC323" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD323" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE323" t="inlineStr">
+      <c r="BA323" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -36594,13 +35379,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX324" t="inlineStr">
+      <c r="AW324" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD324" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="325">
@@ -36637,13 +35419,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX325" t="inlineStr">
+      <c r="AW325" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD325" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="326">
@@ -36680,13 +35459,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX326" t="inlineStr">
+      <c r="AW326" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD326" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="327">
@@ -36723,13 +35499,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX327" t="inlineStr">
+      <c r="AW327" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD327" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="328">
@@ -36766,13 +35539,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX328" t="inlineStr">
+      <c r="AW328" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD328" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="329">
@@ -36809,13 +35579,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX329" t="inlineStr">
+      <c r="AW329" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD329" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="330">
@@ -36852,13 +35619,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX330" t="inlineStr">
+      <c r="AW330" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD330" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="331">
@@ -36895,13 +35659,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX331" t="inlineStr">
+      <c r="AW331" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD331" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="332">
@@ -37113,35 +35874,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV332" t="inlineStr">
+      <c r="AU332" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW332" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX332" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY332" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ332" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC332" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD332" s="2">
-        <v>45106</v>
-      </c>
-      <c r="BE332" t="inlineStr">
+      <c r="BA332" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
@@ -37181,13 +35939,10 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AX333" t="inlineStr">
+      <c r="AW333" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
-      </c>
-      <c r="BD333" s="2">
-        <v>45106</v>
       </c>
     </row>
     <row r="334">
@@ -37391,43 +36146,30 @@
       </c>
       <c r="AU334" t="inlineStr">
         <is>
-          <t>"inally, the modified parallel analysis and factor score reliabilities were cal- culated using author-written functions in R. Code for these functions is available upon request."</t>
-        </is>
-      </c>
-      <c r="AV334" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW334" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX334" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY334" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ334" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB334" t="inlineStr">
-        <is>
-          <t>supplementary material not findable, similar to other MBRM articles</t>
-        </is>
-      </c>
-      <c r="BC334" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD334" s="2">
-        <v>45125</v>
-      </c>
-      <c r="BE334" t="inlineStr">
+      <c r="BA334" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -37639,17 +36381,17 @@
       </c>
       <c r="AU335" t="inlineStr">
         <is>
-          <t>"A code programmed in software R (R Core Team, 2019) can be available from the authors upon request"</t>
-        </is>
-      </c>
-      <c r="AV335" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW335" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX335" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY335" t="inlineStr">
@@ -37659,18 +36401,10 @@
       </c>
       <c r="AZ335" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC335" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD335" s="2">
-        <v>45125</v>
-      </c>
-      <c r="BE335" t="inlineStr">
+      <c r="BA335" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -37880,14 +36614,19 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV336" t="inlineStr">
+      <c r="AU336" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW336" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX336" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY336" t="inlineStr">
@@ -37897,18 +36636,10 @@
       </c>
       <c r="AZ336" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC336" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD336" s="2">
-        <v>45125</v>
-      </c>
-      <c r="BE336" t="inlineStr">
+      <c r="BA336" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -38118,19 +36849,24 @@
           <t>no</t>
         </is>
       </c>
+      <c r="AU337" t="inlineStr">
+        <is>
+          <t>not accessible</t>
+        </is>
+      </c>
       <c r="AV337" t="inlineStr">
         <is>
-          <t>not accessible</t>
+          <t>https://osf.io/53b2g/</t>
         </is>
       </c>
       <c r="AW337" t="inlineStr">
         <is>
-          <t>https://osf.io/53b2g/</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="AX337" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY337" t="inlineStr">
@@ -38140,18 +36876,10 @@
       </c>
       <c r="AZ337" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC337" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD337" s="2">
-        <v>45125</v>
-      </c>
-      <c r="BE337" t="inlineStr">
+      <c r="BA337" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -38363,17 +37091,17 @@
       </c>
       <c r="AU338" t="inlineStr">
         <is>
-          <t>"code for data generation and calibration was written in R programming language (R Core Team, 2020) and can be requested from the author."</t>
-        </is>
-      </c>
-      <c r="AV338" t="inlineStr">
-        <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW338" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX338" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AY338" t="inlineStr">
@@ -38383,18 +37111,10 @@
       </c>
       <c r="AZ338" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BC338" t="inlineStr">
-        <is>
           <t>great</t>
         </is>
       </c>
-      <c r="BD338" s="2">
-        <v>45125</v>
-      </c>
-      <c r="BE338" t="inlineStr">
+      <c r="BA338" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -38599,40 +37319,32 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AV339" t="inlineStr">
+      <c r="AU339" t="inlineStr">
         <is>
           <t>not accessible</t>
         </is>
       </c>
+      <c r="AW339" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
       <c r="AX339" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="AY339" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AZ339" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="BB339" t="inlineStr">
-        <is>
-          <t>supplementary material not findable, similar to other MBRM articles</t>
-        </is>
-      </c>
-      <c r="BC339" t="inlineStr">
-        <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="BD339" s="2">
-        <v>45125</v>
-      </c>
-      <c r="BE339" t="inlineStr">
+      <c r="BA339" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>

--- a/data/sim_res_fac.xlsx
+++ b/data/sim_res_fac.xlsx
@@ -2065,7 +2065,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -10986,7 +10986,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -11776,7 +11776,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -13306,7 +13306,7 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -19256,7 +19256,7 @@
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -19871,7 +19871,7 @@
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -21101,7 +21101,7 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -21826,7 +21826,7 @@
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -22326,7 +22326,7 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -22576,7 +22576,7 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -24106,7 +24106,7 @@
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -24626,7 +24626,7 @@
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
@@ -26071,7 +26071,7 @@
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -27781,7 +27781,7 @@
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -29456,7 +29456,7 @@
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -30471,7 +30471,7 @@
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -31251,7 +31251,7 @@
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -31756,7 +31756,7 @@
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -34271,7 +34271,7 @@
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -34826,7 +34826,7 @@
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -36021,7 +36021,7 @@
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -36251,7 +36251,7 @@
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -36486,7 +36486,7 @@
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
@@ -36961,7 +36961,7 @@
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>fully-factorial</t>
+          <t>partially-factorial</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">

--- a/data/sim_res_fac.xlsx
+++ b/data/sim_res_fac.xlsx
@@ -24771,7 +24771,7 @@
       </c>
       <c r="AX206" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY206" t="inlineStr">
@@ -34411,7 +34411,7 @@
       </c>
       <c r="AX310" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>partially</t>
         </is>
       </c>
       <c r="AY310" t="inlineStr">
